--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -11,8 +11,10 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -688,7 +690,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Max 15</t>
@@ -700,9 +702,6 @@
     <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
   </si>
   <si>
@@ -713,9 +712,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
     <t xml:space="preserve">43
@@ -723,15 +719,6 @@
 48</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов Кока-Кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
   </si>
   <si>
@@ -753,16 +740,10 @@
     <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">46
@@ -990,7 +971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -999,7 +980,6 @@
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="D\-MMM"/>
-    <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1053,8 +1033,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1072,7 +1052,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1119,7 +1099,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1224,10 +1204,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1273,7 +1249,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1291,7 +1267,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1317,50 +1293,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF61"/>
+  <dimension ref="A1:AMF65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="80.5546558704453"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -5236,7 +5212,7 @@
         <v>186</v>
       </c>
       <c r="AH49" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AI49" s="7" t="n">
         <v>2</v>
@@ -5269,10 +5245,10 @@
         <v>203</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>58</v>
@@ -5286,7 +5262,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -5302,7 +5278,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD50" s="20" t="n">
         <v>0.04</v>
@@ -5317,7 +5293,7 @@
         <v>186</v>
       </c>
       <c r="AH50" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AI50" s="7" t="n">
         <v>2</v>
@@ -5326,7 +5302,7 @@
         <v>42</v>
       </c>
       <c r="AK50" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL50" s="24" t="n">
         <v>312</v>
@@ -5337,7 +5313,7 @@
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>38</v>
@@ -5350,26 +5326,36 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="11"/>
+      <c r="M51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="P51" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="Q51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="7"/>
+      <c r="R51" s="26" t="s">
+        <v>223</v>
+      </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -5377,40 +5363,39 @@
       <c r="W51" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="X51" s="7"/>
+      <c r="X51" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="AD51" s="9"/>
-      <c r="AE51" s="26"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH51" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH51" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI51" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AJ51" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="AK51" s="7" t="n">
-        <v>44</v>
-      </c>
+      <c r="AK51" s="7"/>
       <c r="AL51" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="AMD51" s="13"/>
-      <c r="AME51" s="13"/>
-      <c r="AMF51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>38</v>
@@ -5423,36 +5408,28 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="7" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="P52" s="11"/>
       <c r="Q52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R52" s="27" t="s">
-        <v>228</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -5460,37 +5437,39 @@
       <c r="W52" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="X52" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD52" s="9"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH52" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH52" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI52" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ52" s="7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK52" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="AK52" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="AL52" s="7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>38</v>
@@ -5503,28 +5482,36 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="11"/>
+      <c r="M53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="P53" s="11" t="s">
+        <v>222</v>
+      </c>
       <c r="Q53" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="R53" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="R53" s="26" t="s">
+        <v>223</v>
+      </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
@@ -5532,37 +5519,41 @@
       <c r="W53" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="X53" s="7"/>
+      <c r="X53" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
+      <c r="AB53" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="AC53" s="7" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="AD53" s="9"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH53" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH53" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI53" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ53" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7" t="n">
         <v>45</v>
-      </c>
-      <c r="AK53" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL53" s="7" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>38</v>
@@ -5575,10 +5566,10 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>62</v>
@@ -5590,20 +5581,20 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R54" s="27" t="s">
-        <v>228</v>
+      <c r="R54" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -5613,13 +5604,13 @@
         <v>192</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AC54" s="7" t="s">
         <v>68</v>
@@ -5628,14 +5619,16 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH54" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH54" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI54" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AJ54" s="7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7" t="n">
@@ -5644,7 +5637,7 @@
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>38</v>
@@ -5657,35 +5650,33 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="O55" s="11"/>
-      <c r="P55" s="11" t="s">
-        <v>242</v>
-      </c>
+      <c r="P55" s="11"/>
       <c r="Q55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="R55" s="27" t="s">
-        <v>228</v>
+      <c r="R55" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -5695,14 +5686,12 @@
         <v>192</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
-      <c r="AB55" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="AB55" s="7"/>
       <c r="AC55" s="7" t="s">
         <v>68</v>
       </c>
@@ -5710,23 +5699,25 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH55" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH55" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI55" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ55" s="7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK55" s="7"/>
       <c r="AL55" s="7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>38</v>
@@ -5737,34 +5728,30 @@
       <c r="D56" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="F56" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="M56" s="7"/>
       <c r="N56" s="11" t="s">
         <v>190</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R56" s="27" t="s">
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7" t="s">
         <v>191</v>
       </c>
       <c r="S56" s="7"/>
@@ -5774,37 +5761,39 @@
       <c r="W56" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="X56" s="16" t="s">
-        <v>243</v>
-      </c>
+      <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD56" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="AD56" s="20" t="n">
+        <v>0.04</v>
+      </c>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH56" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="AH56" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="AI56" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ56" s="7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="7" t="n">
-        <v>42</v>
+      <c r="AL56" s="24" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>38</v>
@@ -5813,74 +5802,62 @@
         <v>39</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="I57" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
-      <c r="W57" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
-      <c r="AC57" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD57" s="20" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="9"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
-      <c r="AG57" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH57" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI57" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
       <c r="AJ57" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="24" t="n">
-        <v>312</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AK57" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>38</v>
@@ -5889,28 +5866,30 @@
         <v>39</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="28" t="s">
+      <c r="G58" s="27" t="s">
         <v>253</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>254</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
+      <c r="N58" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -5921,8 +5900,12 @@
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
+      <c r="W58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="X58" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
@@ -5935,16 +5918,14 @@
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK58" s="16" t="s">
-        <v>257</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>38</v>
@@ -5953,43 +5934,41 @@
         <v>39</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="27" t="s">
         <v>260</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>261</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
-      <c r="W59" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="W59" s="7"/>
       <c r="X59" s="16" t="s">
         <v>264</v>
       </c>
@@ -6005,14 +5984,14 @@
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>38</v>
@@ -6021,35 +6000,35 @@
         <v>39</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="27" t="s">
         <v>267</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -6057,7 +6036,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
@@ -6071,79 +6050,14 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="7" t="n">
-        <v>54</v>
-      </c>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="7"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL61"/>
+  <autoFilter ref="A1:AL60"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1303,40 +1304,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="80.5546558704453"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="81.3036437246964"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\04022019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121D0D4-CBF3-4D48-8D97-BDA4CD6FD451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,135 +32,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
-  <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional Trade_NS_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="271">
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000031</t>
+  </si>
+  <si>
+    <t>Traditional Trade_NS_CAP</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -166,35 +171,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JNSD Дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>Displays</t>
+  </si>
+  <si>
+    <t>JNSD Displays</t>
+  </si>
+  <si>
+    <t>JNSD Дисплеи</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">40
@@ -204,19 +209,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>2
 3
 4
 5
@@ -231,228 +236,228 @@
 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000054227, 5449000228970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000008046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000006271, 5449000006271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000050939, 5449000228956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.25л слим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000020987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54490130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18
+    <t>Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>5449000054227, 5449000228970</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Activation, Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>54491472</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000008046</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>5449000006271, 5449000006271</t>
+  </si>
+  <si>
+    <t>Sprite - 1L</t>
+  </si>
+  <si>
+    <t>Спрайт - 1л</t>
+  </si>
+  <si>
+    <t>5449000050939, 5449000228956</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>40822938</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>54491069</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000000712</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Sprite - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000000729</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.25L Slim</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.25л слим</t>
+  </si>
+  <si>
+    <t>5449000020987</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131836</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t>54490130</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000214744</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>40822426</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>18
 19</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060335632906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>5060335632906</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>21
 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t>4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>24
 25
 26
 27
@@ -462,299 +467,299 @@
 31</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042438738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042434884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042438950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 
+    <t>Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>4607042434877</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>4607042434891</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>4607042438738</t>
+  </si>
+  <si>
+    <t>Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t>4607042434884</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174577787</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>4607042438950</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>4650075420980</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>STANDARD 27</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Juice Displays</t>
+  </si>
+  <si>
+    <t>33 
 34</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display: Lead SKU Dobriy - Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной СКЮ Добрый Яблоко/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35
+    <t>Juice Display: Facings</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>MAN in CAT</t>
+  </si>
+  <si>
+    <t>Juice Display: Lead SKU Dobriy - Apple</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной СКЮ Добрый Яблоко/</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>35
 57</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display: Lead Dobriy - Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37
+    <t>Juice Display: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Lead SKU</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Juice Display: Lead Dobriy - Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
+  </si>
+  <si>
+    <t>37
 38
 39</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC 1 door, FC door 1.5 door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filled collers target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t>Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>FC 1 door, FC door 1.5 door</t>
+  </si>
+  <si>
+    <t>filled collers target</t>
+  </si>
+  <si>
+    <t>number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
+  </si>
+  <si>
+    <t>STANDARD 23</t>
+  </si>
+  <si>
+    <t>Cooler: CCH Cooler Doors FC</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании FC</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>43
 45
 48</t>
   </si>
   <si>
-    <t xml:space="preserve">Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnd: Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46
+    <t>Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Barnd: Coca-Cola</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t>46
 47</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+    <t>Cooler: Merch Priorty STD fuze shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
     <t xml:space="preserve">SSD 1 door
@@ -766,22 +771,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t>SSD 1 door
 NSB 1 door
 Mixed 1 door
 SSD 1.5 door
@@ -789,70 +788,70 @@
 Mixed  1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">each SKU hits facings target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of KPI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40
+    <t>Cooler: Merch Priorty STD every SKUs min 2 facing</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
+  </si>
+  <si>
+    <t>each SKU hits facings target</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of KPI scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
+  </si>
+  <si>
+    <t>40
 41
 42
 49</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD 1 door
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>SSD 1 door
 NSB 1 door
 Mixed 1 door
 FC 1 door
@@ -862,22 +861,22 @@
 FC door 1.5 door</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP_ACTIVATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t>Attribute 1</t>
+  </si>
+  <si>
+    <t>POP_ACTIVATED</t>
+  </si>
+  <si>
+    <t>POP Activated</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Other SSD Display
@@ -916,19 +915,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPLAY_ZONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo SSD
+    <t>Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t>DISPLAY_ZONES</t>
+  </si>
+  <si>
+    <t>Display Zones</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Promo SSD
 Promo Water
 Promo Energy
 Promo Fuzetea
@@ -967,22 +966,26 @@
 Energy Other
 Promo Juice</t>
   </si>
+  <si>
+    <t>Brand: Fuzetea</t>
+  </si>
+  <si>
+    <t>Fuzetea</t>
+  </si>
+  <si>
+    <t>Brand: Coca-Cola</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
-    <numFmt numFmtId="171" formatCode="D\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -991,22 +994,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1025,7 +1013,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,172 +1044,139 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1280,71 +1235,373 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMF65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53:P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="81.3036437246964"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col min="1" max="1" width="10.28515625" style="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="21" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="15.140625" style="1"/>
+    <col min="6" max="6" width="45.5703125" style="1"/>
+    <col min="7" max="7" width="65.28515625" style="1"/>
+    <col min="8" max="8" width="41.7109375" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="13.42578125" style="1"/>
+    <col min="13" max="13" width="26.5703125" style="1"/>
+    <col min="14" max="14" width="27.7109375" style="1"/>
+    <col min="15" max="15" width="19.5703125" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="18.5703125" style="1"/>
+    <col min="18" max="18" width="13.42578125" style="1"/>
+    <col min="19" max="19" width="7" style="1"/>
+    <col min="20" max="20" width="13.85546875" style="1"/>
+    <col min="21" max="21" width="17.42578125" style="1"/>
+    <col min="22" max="22" width="22.42578125" style="1"/>
+    <col min="23" max="23" width="21.7109375" style="1"/>
+    <col min="24" max="24" width="46.42578125" style="1"/>
+    <col min="25" max="25" width="22.85546875" style="1"/>
+    <col min="26" max="26" width="25.28515625" style="1"/>
+    <col min="27" max="27" width="25.5703125" style="1"/>
+    <col min="28" max="28" width="15.5703125" style="1"/>
+    <col min="29" max="29" width="25.5703125" style="1"/>
+    <col min="30" max="30" width="13.42578125" style="1"/>
+    <col min="31" max="31" width="12.5703125" style="1"/>
+    <col min="32" max="32" width="13" style="1"/>
+    <col min="33" max="33" width="90.7109375" style="1"/>
+    <col min="34" max="34" width="81.28515625" style="1"/>
+    <col min="35" max="35" width="7.5703125" style="1"/>
+    <col min="36" max="36" width="8.7109375" style="1"/>
+    <col min="37" max="37" width="10.5703125" style="1"/>
+    <col min="38" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1463,8 +1720,8 @@
       <c r="AME1" s="6"/>
       <c r="AMF1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1512,10 +1769,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="11">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="11">
         <v>300</v>
       </c>
       <c r="AK2" s="12" t="s">
@@ -1526,8 +1783,8 @@
       <c r="AME2" s="13"/>
       <c r="AMF2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1575,13 +1832,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="11">
         <v>1</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="11">
         <v>301</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="11">
         <v>303</v>
       </c>
       <c r="AL3" s="11"/>
@@ -1589,8 +1846,8 @@
       <c r="AME3" s="6"/>
       <c r="AMF3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1638,24 +1895,24 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="11">
         <v>1</v>
       </c>
-      <c r="AJ4" s="15" t="n">
+      <c r="AJ4" s="15">
         <v>303</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="11">
         <v>32</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="11">
         <v>301</v>
       </c>
       <c r="AMD4" s="6"/>
       <c r="AME4" s="6"/>
       <c r="AMF4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1703,10 +1960,10 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="11">
         <v>1</v>
       </c>
-      <c r="AJ5" s="15" t="n">
+      <c r="AJ5" s="15">
         <v>310</v>
       </c>
       <c r="AK5" s="12" t="s">
@@ -1717,8 +1974,8 @@
       <c r="AME5" s="6"/>
       <c r="AMF5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1766,24 +2023,24 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="11">
         <v>1</v>
       </c>
-      <c r="AJ6" s="15" t="n">
+      <c r="AJ6" s="15">
         <v>311</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="7">
         <v>36</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="7">
         <v>310</v>
       </c>
       <c r="AMD6" s="6"/>
       <c r="AME6" s="6"/>
       <c r="AMF6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1831,24 +2088,24 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="11">
         <v>1</v>
       </c>
-      <c r="AJ7" s="15" t="n">
+      <c r="AJ7" s="15">
         <v>312</v>
       </c>
       <c r="AK7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="11">
         <v>310</v>
       </c>
       <c r="AMD7" s="6"/>
       <c r="AME7" s="6"/>
       <c r="AMF7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1900,24 +2157,24 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="AI8" s="7">
         <v>2</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="7">
         <v>1</v>
       </c>
       <c r="AK8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="7">
         <v>300</v>
       </c>
       <c r="AMD8" s="6"/>
       <c r="AME8" s="6"/>
       <c r="AMF8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1942,7 +2199,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
@@ -1978,29 +2235,29 @@
       <c r="AC9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="20" t="n">
-        <v>0.021437</v>
+      <c r="AD9" s="20">
+        <v>2.1437000000000001E-2</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AI9" s="7">
         <v>3</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="7">
         <v>2</v>
       </c>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AL9" s="7">
         <v>1</v>
       </c>
       <c r="AMD9" s="6"/>
       <c r="AME9" s="6"/>
       <c r="AMF9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2025,7 +2282,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
@@ -2061,29 +2318,29 @@
       <c r="AC10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD10" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AI10" s="7">
         <v>3</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="7">
         <v>3</v>
       </c>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AL10" s="7">
         <v>1</v>
       </c>
       <c r="AMD10" s="6"/>
       <c r="AME10" s="6"/>
       <c r="AMF10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2108,7 +2365,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="7"/>
@@ -2144,29 +2401,29 @@
       <c r="AC11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD11" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AI11" s="7">
         <v>3</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="7">
         <v>4</v>
       </c>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7" t="n">
+      <c r="AL11" s="7">
         <v>1</v>
       </c>
       <c r="AMD11" s="6"/>
       <c r="AME11" s="6"/>
       <c r="AMF11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2191,7 +2448,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
@@ -2227,29 +2484,29 @@
       <c r="AC12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD12" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AI12" s="7">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="7">
         <v>5</v>
       </c>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AL12" s="7">
         <v>1</v>
       </c>
       <c r="AMD12" s="6"/>
       <c r="AME12" s="6"/>
       <c r="AMF12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2274,7 +2531,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
@@ -2310,29 +2567,29 @@
       <c r="AC13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD13" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AI13" s="7">
         <v>3</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="7">
         <v>6</v>
       </c>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AL13" s="7">
         <v>1</v>
       </c>
       <c r="AMD13" s="6"/>
       <c r="AME13" s="6"/>
       <c r="AMF13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2357,7 +2614,7 @@
         <v>62</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="7"/>
@@ -2393,29 +2650,29 @@
       <c r="AC14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD14" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="7">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="7">
         <v>7</v>
       </c>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="7">
         <v>1</v>
       </c>
       <c r="AMD14" s="6"/>
       <c r="AME14" s="6"/>
       <c r="AMF14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2440,7 +2697,7 @@
         <v>62</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
@@ -2476,29 +2733,29 @@
       <c r="AC15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD15" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AI15" s="7">
         <v>3</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="7">
         <v>8</v>
       </c>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="7">
         <v>1</v>
       </c>
       <c r="AMD15" s="6"/>
       <c r="AME15" s="6"/>
       <c r="AMF15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2557,29 +2814,29 @@
       <c r="AC16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="20" t="n">
-        <v>0.021371</v>
+      <c r="AD16" s="20">
+        <v>2.1371000000000001E-2</v>
       </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AI16" s="7">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="7">
         <v>9</v>
       </c>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AL16" s="7">
         <v>1</v>
       </c>
       <c r="AMD16" s="6"/>
       <c r="AME16" s="6"/>
       <c r="AMF16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2604,7 +2861,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
@@ -2640,29 +2897,29 @@
       <c r="AC17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="20" t="n">
-        <v>0.010011</v>
+      <c r="AD17" s="20">
+        <v>1.0011000000000001E-2</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AI17" s="7">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="7">
         <v>10</v>
       </c>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AL17" s="7">
         <v>1</v>
       </c>
       <c r="AMD17" s="6"/>
       <c r="AME17" s="6"/>
       <c r="AMF17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2687,7 +2944,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -2723,29 +2980,29 @@
       <c r="AC18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="20" t="n">
-        <v>0.009989</v>
+      <c r="AD18" s="20">
+        <v>9.9889999999999996E-3</v>
       </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AI18" s="7">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="7">
         <v>11</v>
       </c>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AL18" s="7">
         <v>1</v>
       </c>
       <c r="AMD18" s="6"/>
       <c r="AME18" s="6"/>
       <c r="AMF18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2770,7 +3027,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
@@ -2806,29 +3063,29 @@
       <c r="AC19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="20" t="n">
-        <v>0.009989</v>
+      <c r="AD19" s="20">
+        <v>9.9889999999999996E-3</v>
       </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AI19" s="7">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="7">
         <v>12</v>
       </c>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AL19" s="7">
         <v>1</v>
       </c>
       <c r="AMD19" s="6"/>
       <c r="AME19" s="6"/>
       <c r="AMF19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2853,7 +3110,7 @@
         <v>62</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
@@ -2889,29 +3146,29 @@
       <c r="AC20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="20" t="n">
-        <v>0.009989</v>
+      <c r="AD20" s="20">
+        <v>9.9889999999999996E-3</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7" t="n">
+      <c r="AI20" s="7">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="7">
         <v>13</v>
       </c>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AL20" s="7">
         <v>1</v>
       </c>
       <c r="AMD20" s="13"/>
       <c r="AME20" s="13"/>
       <c r="AMF20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2936,7 +3193,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
@@ -2972,29 +3229,29 @@
       <c r="AC21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="20" t="n">
-        <v>0.009989</v>
+      <c r="AD21" s="20">
+        <v>9.9889999999999996E-3</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="n">
+      <c r="AI21" s="7">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="7">
         <v>14</v>
       </c>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AL21" s="7">
         <v>1</v>
       </c>
       <c r="AMD21" s="6"/>
       <c r="AME21" s="6"/>
       <c r="AMF21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3046,24 +3303,24 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AI22" s="7">
         <v>2</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="7">
         <v>15</v>
       </c>
-      <c r="AK22" s="7" t="n">
+      <c r="AK22" s="7">
         <v>16</v>
       </c>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="7">
         <v>300</v>
       </c>
       <c r="AMD22" s="6"/>
       <c r="AME22" s="6"/>
       <c r="AMF22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3088,7 +3345,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="7"/>
@@ -3124,29 +3381,29 @@
       <c r="AC23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD23" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AI23" s="7">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="7">
         <v>16</v>
       </c>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AL23" s="7">
         <v>15</v>
       </c>
       <c r="AMD23" s="6"/>
       <c r="AME23" s="6"/>
       <c r="AMF23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3198,24 +3455,24 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AI24" s="7">
         <v>2</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="7">
         <v>17</v>
       </c>
       <c r="AK24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="7">
         <v>300</v>
       </c>
       <c r="AMD24" s="6"/>
       <c r="AME24" s="6"/>
       <c r="AMF24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3240,7 +3497,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="7"/>
@@ -3276,29 +3533,29 @@
       <c r="AC25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD25" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AI25" s="7">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="7">
         <v>18</v>
       </c>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AL25" s="7">
         <v>17</v>
       </c>
       <c r="AMD25" s="6"/>
       <c r="AME25" s="6"/>
       <c r="AMF25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3323,7 +3580,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
@@ -3359,29 +3616,29 @@
       <c r="AC26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD26" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AI26" s="7">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="7">
         <v>19</v>
       </c>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AL26" s="7">
         <v>17</v>
       </c>
       <c r="AMD26" s="6"/>
       <c r="AME26" s="6"/>
       <c r="AMF26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+    <row r="27" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3433,24 +3690,24 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AI27" s="7">
         <v>2</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="7">
         <v>20</v>
       </c>
       <c r="AK27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="7">
         <v>300</v>
       </c>
       <c r="AMD27" s="6"/>
       <c r="AME27" s="6"/>
       <c r="AMF27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>21</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3475,7 +3732,7 @@
         <v>62</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="7">
         <v>1</v>
       </c>
       <c r="K28" s="7"/>
@@ -3511,29 +3768,29 @@
       <c r="AC28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD28" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="7" t="n">
+      <c r="AI28" s="7">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="7">
         <v>21</v>
       </c>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AL28" s="7">
         <v>20</v>
       </c>
       <c r="AMD28" s="13"/>
       <c r="AME28" s="13"/>
       <c r="AMF28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3558,7 +3815,7 @@
         <v>62</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
@@ -3594,29 +3851,29 @@
       <c r="AC29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="20" t="n">
-        <v>0.010007</v>
+      <c r="AD29" s="20">
+        <v>1.0007E-2</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7" t="n">
+      <c r="AI29" s="7">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="7">
         <v>22</v>
       </c>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7" t="n">
+      <c r="AL29" s="7">
         <v>20</v>
       </c>
       <c r="AMD29" s="6"/>
       <c r="AME29" s="6"/>
       <c r="AMF29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3668,24 +3925,24 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AI30" s="7">
         <v>2</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="7">
         <v>23</v>
       </c>
       <c r="AK30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AL30" s="7" t="n">
+      <c r="AL30" s="7">
         <v>300</v>
       </c>
       <c r="AMD30" s="6"/>
       <c r="AME30" s="6"/>
       <c r="AMF30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3710,7 +3967,7 @@
         <v>62</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -3746,29 +4003,29 @@
       <c r="AC31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD31" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AI31" s="7">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="7">
         <v>24</v>
       </c>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="7" t="n">
+      <c r="AL31" s="7">
         <v>23</v>
       </c>
       <c r="AMD31" s="6"/>
       <c r="AME31" s="6"/>
       <c r="AMF31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -3793,7 +4050,7 @@
         <v>62</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
@@ -3829,29 +4086,29 @@
       <c r="AC32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD32" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AI32" s="7">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="7">
         <v>25</v>
       </c>
       <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AL32" s="7">
         <v>23</v>
       </c>
       <c r="AMD32" s="6"/>
       <c r="AME32" s="6"/>
       <c r="AMF32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>26</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -3876,7 +4133,7 @@
         <v>62</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="7">
         <v>1</v>
       </c>
       <c r="K33" s="7"/>
@@ -3912,29 +4169,29 @@
       <c r="AC33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD33" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AI33" s="7">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="7">
         <v>26</v>
       </c>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AL33" s="7">
         <v>23</v>
       </c>
       <c r="AMD33" s="6"/>
       <c r="AME33" s="6"/>
       <c r="AMF33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+    <row r="34" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -3959,7 +4216,7 @@
         <v>62</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="7">
         <v>1</v>
       </c>
       <c r="K34" s="7"/>
@@ -3995,29 +4252,29 @@
       <c r="AC34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD34" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AI34" s="7">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="7">
         <v>27</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AL34" s="7">
         <v>23</v>
       </c>
       <c r="AMD34" s="6"/>
       <c r="AME34" s="6"/>
       <c r="AMF34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+    <row r="35" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>28</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4042,7 +4299,7 @@
         <v>62</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="7">
         <v>1</v>
       </c>
       <c r="K35" s="7"/>
@@ -4078,29 +4335,29 @@
       <c r="AC35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="20" t="n">
-        <v>0.020999</v>
+      <c r="AD35" s="20">
+        <v>2.0999E-2</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
+      <c r="AI35" s="7">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="7">
         <v>28</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
+      <c r="AL35" s="7">
         <v>23</v>
       </c>
       <c r="AMD35" s="6"/>
       <c r="AME35" s="6"/>
       <c r="AMF35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+    <row r="36" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -4125,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="7"/>
@@ -4161,29 +4418,29 @@
       <c r="AC36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="20" t="n">
-        <v>0.010007</v>
+      <c r="AD36" s="20">
+        <v>1.0007E-2</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AI36" s="7">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="7">
         <v>29</v>
       </c>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7" t="n">
+      <c r="AL36" s="7">
         <v>23</v>
       </c>
       <c r="AMD36" s="6"/>
       <c r="AME36" s="6"/>
       <c r="AMF36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+    <row r="37" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4208,7 +4465,7 @@
         <v>62</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="7">
         <v>1</v>
       </c>
       <c r="K37" s="7"/>
@@ -4244,29 +4501,29 @@
       <c r="AC37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="20" t="n">
-        <v>0.010007</v>
+      <c r="AD37" s="20">
+        <v>1.0007E-2</v>
       </c>
       <c r="AE37" s="17"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="7" t="n">
+      <c r="AI37" s="7">
         <v>3</v>
       </c>
-      <c r="AJ37" s="7" t="n">
+      <c r="AJ37" s="7">
         <v>30</v>
       </c>
       <c r="AK37" s="7"/>
-      <c r="AL37" s="7" t="n">
+      <c r="AL37" s="7">
         <v>23</v>
       </c>
       <c r="AMD37" s="13"/>
       <c r="AME37" s="13"/>
       <c r="AMF37" s="13"/>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+    <row r="38" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4291,7 +4548,7 @@
         <v>62</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="7"/>
@@ -4327,29 +4584,29 @@
       <c r="AC38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="20" t="n">
-        <v>0.009987</v>
+      <c r="AD38" s="20">
+        <v>9.9869999999999994E-3</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="7" t="n">
+      <c r="AI38" s="7">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="7">
         <v>31</v>
       </c>
       <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="n">
+      <c r="AL38" s="7">
         <v>23</v>
       </c>
       <c r="AMD38" s="6"/>
       <c r="AME38" s="6"/>
       <c r="AMF38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+    <row r="39" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4374,7 +4631,7 @@
         <v>159</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="7" t="n">
+      <c r="J39" s="7">
         <v>2</v>
       </c>
       <c r="K39" s="7"/>
@@ -4402,31 +4659,31 @@
       <c r="AC39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="20" t="n">
+      <c r="AD39" s="20">
         <v>0.15</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AI39" s="7">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="7">
         <v>32</v>
       </c>
       <c r="AK39" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AL39" s="23" t="n">
+      <c r="AL39" s="23">
         <v>303</v>
       </c>
       <c r="AMD39" s="6"/>
       <c r="AME39" s="6"/>
       <c r="AMF39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+    <row r="40" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4451,7 +4708,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="J40" s="7">
         <v>12</v>
       </c>
       <c r="K40" s="7"/>
@@ -4490,22 +4747,22 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AI40" s="7">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="7">
         <v>33</v>
       </c>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AL40" s="7">
         <v>32</v>
       </c>
       <c r="AMD40" s="6"/>
       <c r="AME40" s="6"/>
       <c r="AMF40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+    <row r="41" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>34</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4530,7 +4787,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="7">
         <v>1</v>
       </c>
       <c r="K41" s="7"/>
@@ -4563,24 +4820,24 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AI41" s="7">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="7">
         <v>34</v>
       </c>
       <c r="AK41" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="7">
         <v>32</v>
       </c>
       <c r="AMD41" s="6"/>
       <c r="AME41" s="6"/>
       <c r="AMF41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+    <row r="42" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4611,7 +4868,7 @@
       <c r="M42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="11" t="n">
+      <c r="N42" s="11">
         <v>4607042434877</v>
       </c>
       <c r="O42" s="11"/>
@@ -4644,22 +4901,22 @@
       <c r="AH42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="7">
         <v>4</v>
       </c>
-      <c r="AJ42" s="7" t="n">
+      <c r="AJ42" s="7">
         <v>57</v>
       </c>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AL42" s="7">
         <v>34</v>
       </c>
       <c r="AMD42" s="6"/>
       <c r="AME42" s="6"/>
       <c r="AMF42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+    <row r="43" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4723,22 +4980,22 @@
       <c r="AH43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="7">
         <v>4</v>
       </c>
-      <c r="AJ43" s="7" t="n">
+      <c r="AJ43" s="7">
         <v>35</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
+      <c r="AL43" s="7">
         <v>34</v>
       </c>
       <c r="AMD43" s="6"/>
       <c r="AME43" s="6"/>
       <c r="AMF43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+    <row r="44" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -4787,7 +5044,7 @@
       <c r="AC44" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD44" s="20" t="n">
+      <c r="AD44" s="20">
         <v>0.24</v>
       </c>
       <c r="AE44" s="7"/>
@@ -4796,24 +5053,24 @@
       <c r="AH44" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="7">
         <v>2</v>
       </c>
-      <c r="AJ44" s="7" t="n">
+      <c r="AJ44" s="7">
         <v>36</v>
       </c>
       <c r="AK44" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="AL44" s="15" t="n">
+      <c r="AL44" s="15">
         <v>311</v>
       </c>
       <c r="AMD44" s="6"/>
       <c r="AME44" s="6"/>
       <c r="AMF44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+    <row r="45" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>37</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4838,10 +5095,10 @@
         <v>188</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
+      <c r="J45" s="7">
         <v>0.5</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="7">
         <v>30</v>
       </c>
       <c r="L45" s="7"/>
@@ -4883,22 +5140,22 @@
       <c r="AH45" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="7">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7" t="n">
+      <c r="AJ45" s="7">
         <v>37</v>
       </c>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AL45" s="7">
         <v>36</v>
       </c>
       <c r="AMD45" s="6"/>
       <c r="AME45" s="6"/>
       <c r="AMF45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+    <row r="46" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>38</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -4923,10 +5180,10 @@
         <v>188</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="7" t="n">
+      <c r="J46" s="7">
         <v>0.5</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="7">
         <v>24</v>
       </c>
       <c r="L46" s="7"/>
@@ -4968,22 +5225,22 @@
       <c r="AH46" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AI46" s="7" t="n">
+      <c r="AI46" s="7">
         <v>3</v>
       </c>
-      <c r="AJ46" s="7" t="n">
+      <c r="AJ46" s="7">
         <v>38</v>
       </c>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
+      <c r="AL46" s="7">
         <v>36</v>
       </c>
       <c r="AMD46" s="6"/>
       <c r="AME46" s="6"/>
       <c r="AMF46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+    <row r="47" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5008,7 +5265,7 @@
         <v>201</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="7" t="n">
+      <c r="J47" s="7">
         <v>0.01</v>
       </c>
       <c r="K47" s="7"/>
@@ -5045,22 +5302,22 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7" t="n">
+      <c r="AI47" s="7">
         <v>3</v>
       </c>
-      <c r="AJ47" s="7" t="n">
+      <c r="AJ47" s="7">
         <v>39</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
+      <c r="AL47" s="7">
         <v>36</v>
       </c>
       <c r="AMD47" s="6"/>
       <c r="AME47" s="6"/>
       <c r="AMF47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+    <row r="48" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>40</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5085,7 +5342,7 @@
         <v>206</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="7" t="n">
+      <c r="J48" s="7">
         <v>1</v>
       </c>
       <c r="K48" s="7"/>
@@ -5117,7 +5374,7 @@
       <c r="AC48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="20" t="n">
+      <c r="AD48" s="20">
         <v>0.04</v>
       </c>
       <c r="AE48" s="7"/>
@@ -5128,22 +5385,22 @@
       <c r="AH48" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI48" s="7" t="n">
+      <c r="AI48" s="7">
         <v>2</v>
       </c>
-      <c r="AJ48" s="7" t="n">
+      <c r="AJ48" s="7">
         <v>40</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="24" t="n">
+      <c r="AL48" s="24">
         <v>312</v>
       </c>
       <c r="AMD48" s="6"/>
       <c r="AME48" s="6"/>
       <c r="AMF48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+    <row r="49" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>41</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5169,10 +5426,10 @@
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7" t="n">
+      <c r="K49" s="7">
         <v>1</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="L49" s="7">
         <v>15</v>
       </c>
       <c r="M49" s="7" t="s">
@@ -5204,7 +5461,7 @@
       <c r="AC49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="20" t="n">
+      <c r="AD49" s="20">
         <v>0.04</v>
       </c>
       <c r="AE49" s="7"/>
@@ -5215,22 +5472,22 @@
       <c r="AH49" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI49" s="7" t="n">
+      <c r="AI49" s="7">
         <v>2</v>
       </c>
-      <c r="AJ49" s="7" t="n">
+      <c r="AJ49" s="7">
         <v>41</v>
       </c>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="24" t="n">
+      <c r="AL49" s="24">
         <v>312</v>
       </c>
       <c r="AMD49" s="6"/>
       <c r="AME49" s="6"/>
       <c r="AMF49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+    <row r="50" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5281,13 +5538,13 @@
       <c r="AC50" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AD50" s="20" t="n">
+      <c r="AD50" s="20">
         <v>0.04</v>
       </c>
-      <c r="AE50" s="7" t="n">
+      <c r="AE50" s="7">
         <v>0</v>
       </c>
-      <c r="AF50" s="7" t="n">
+      <c r="AF50" s="7">
         <v>1</v>
       </c>
       <c r="AG50" s="7" t="s">
@@ -5296,24 +5553,24 @@
       <c r="AH50" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI50" s="7" t="n">
+      <c r="AI50" s="7">
         <v>2</v>
       </c>
-      <c r="AJ50" s="7" t="n">
+      <c r="AJ50" s="7">
         <v>42</v>
       </c>
       <c r="AK50" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="AL50" s="24" t="n">
+      <c r="AL50" s="24">
         <v>312</v>
       </c>
       <c r="AMD50" s="6"/>
       <c r="AME50" s="6"/>
       <c r="AMF50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+    <row r="51" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5336,7 +5593,7 @@
         <v>220</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="7" t="n">
+      <c r="J51" s="7">
         <v>0.4</v>
       </c>
       <c r="K51" s="7"/>
@@ -5383,19 +5640,19 @@
       <c r="AH51" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI51" s="7" t="n">
+      <c r="AI51" s="7">
         <v>3</v>
       </c>
-      <c r="AJ51" s="7" t="n">
+      <c r="AJ51" s="7">
         <v>43</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="7" t="n">
+      <c r="AL51" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+    <row r="52" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5418,7 +5675,7 @@
         <v>169</v>
       </c>
       <c r="I52" s="17"/>
-      <c r="J52" s="7" t="n">
+      <c r="J52" s="7">
         <v>2</v>
       </c>
       <c r="K52" s="7"/>
@@ -5455,21 +5712,21 @@
       <c r="AH52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI52" s="7" t="n">
+      <c r="AI52" s="7">
         <v>3</v>
       </c>
-      <c r="AJ52" s="7" t="n">
+      <c r="AJ52" s="7">
         <v>45</v>
       </c>
       <c r="AK52" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AL52" s="7" t="n">
+      <c r="AL52" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+    <row r="53" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5485,27 +5742,27 @@
       <c r="F53" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>229</v>
+      <c r="G53" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="7" t="n">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7">
         <v>4</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11" t="s">
-        <v>222</v>
+      <c r="L53" s="29"/>
+      <c r="M53" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>64</v>
@@ -5541,19 +5798,19 @@
       <c r="AH53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI53" s="7" t="n">
+      <c r="AI53" s="7">
         <v>4</v>
       </c>
-      <c r="AJ53" s="7" t="n">
+      <c r="AJ53" s="7">
         <v>46</v>
       </c>
       <c r="AK53" s="7"/>
-      <c r="AL53" s="7" t="n">
+      <c r="AL53" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+    <row r="54" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5569,27 +5826,27 @@
       <c r="F54" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>233</v>
+      <c r="G54" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="7" t="n">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7">
         <v>4</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11" t="s">
-        <v>235</v>
+      <c r="M54" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>64</v>
@@ -5605,7 +5862,7 @@
         <v>192</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
@@ -5625,19 +5882,19 @@
       <c r="AH54" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI54" s="7" t="n">
+      <c r="AI54" s="7">
         <v>4</v>
       </c>
-      <c r="AJ54" s="7" t="n">
+      <c r="AJ54" s="7">
         <v>47</v>
       </c>
       <c r="AK54" s="7"/>
-      <c r="AL54" s="7" t="n">
+      <c r="AL54" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+    <row r="55" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>48</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5651,16 +5908,16 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>239</v>
-      </c>
       <c r="I55" s="17"/>
-      <c r="J55" s="7" t="n">
+      <c r="J55" s="7">
         <v>2</v>
       </c>
       <c r="K55" s="7"/>
@@ -5687,7 +5944,7 @@
         <v>192</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -5705,19 +5962,19 @@
       <c r="AH55" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI55" s="7" t="n">
+      <c r="AI55" s="7">
         <v>3</v>
       </c>
-      <c r="AJ55" s="7" t="n">
+      <c r="AJ55" s="7">
         <v>48</v>
       </c>
       <c r="AK55" s="7"/>
-      <c r="AL55" s="7" t="n">
+      <c r="AL55" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
+    <row r="56" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>49</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -5733,13 +5990,13 @@
         <v>203</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -5770,7 +6027,7 @@
       <c r="AC56" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD56" s="20" t="n">
+      <c r="AD56" s="20">
         <v>0.04</v>
       </c>
       <c r="AE56" s="7"/>
@@ -5781,19 +6038,19 @@
       <c r="AH56" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI56" s="7" t="n">
+      <c r="AI56" s="7">
         <v>2</v>
       </c>
-      <c r="AJ56" s="7" t="n">
+      <c r="AJ56" s="7">
         <v>49</v>
       </c>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="24" t="n">
+      <c r="AL56" s="24">
         <v>312</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
+    <row r="57" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -5803,22 +6060,22 @@
         <v>39</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="G57" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="H57" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="I57" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -5829,7 +6086,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5848,16 +6105,16 @@
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
-      <c r="AJ57" s="7" t="n">
+      <c r="AJ57" s="7">
         <v>50</v>
       </c>
       <c r="AK57" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AL57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
+    <row r="58" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>51</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -5867,35 +6124,35 @@
         <v>39</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E58" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="H58" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -5905,7 +6162,7 @@
         <v>192</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
@@ -5918,14 +6175,14 @@
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="7" t="n">
+      <c r="AJ58" s="7">
         <v>51</v>
       </c>
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+    <row r="59" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -5935,35 +6192,35 @@
         <v>39</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E59" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="H59" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="I59" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5971,7 +6228,7 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -5984,14 +6241,14 @@
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
-      <c r="AJ59" s="7" t="n">
+      <c r="AJ59" s="7">
         <v>52</v>
       </c>
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
+    <row r="60" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6001,35 +6258,35 @@
         <v>39</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E60" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F60" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>267</v>
-      </c>
       <c r="H60" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -6037,7 +6294,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
@@ -6050,22 +6307,15 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
-      <c r="AJ60" s="7" t="n">
+      <c r="AJ60" s="7">
         <v>54</v>
       </c>
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AL60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\04022019\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F121D0D4-CBF3-4D48-8D97-BDA4CD6FD451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockWindows="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
+    <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -34,133 +29,133 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="271">
   <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Result Format</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>RD38000031</t>
-  </si>
-  <si>
-    <t>Traditional Trade_NS_CAP</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Представленность</t>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional Trade_NS_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -171,35 +166,35 @@
 </t>
   </si>
   <si>
-    <t>Displays</t>
-  </si>
-  <si>
-    <t>JNSD Displays</t>
-  </si>
-  <si>
-    <t>JNSD Дисплеи</t>
-  </si>
-  <si>
-    <t>Coolers</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>311
+    <t xml:space="preserve">Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNSD Дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311
 312</t>
   </si>
   <si>
-    <t>Coolers: Doors</t>
-  </si>
-  <si>
-    <t>Холодильник: Двери</t>
-  </si>
-  <si>
-    <t>Coolers: Quality</t>
-  </si>
-  <si>
-    <t>Холодильник: Качество</t>
+    <t xml:space="preserve">Coolers: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Двери</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers: Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильник: Качество</t>
   </si>
   <si>
     <t xml:space="preserve">40
@@ -209,19 +204,19 @@
 </t>
   </si>
   <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>2
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -236,228 +231,228 @@
 14</t>
   </si>
   <si>
-    <t>Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>5449000054227, 5449000228970</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>54491472</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000008046</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>5449000006271, 5449000006271</t>
-  </si>
-  <si>
-    <t>Sprite - 1L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1л</t>
-  </si>
-  <si>
-    <t>5449000050939, 5449000228956</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>40822938</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>54491069</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000000712</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Sprite - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000000729</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.25л слим</t>
-  </si>
-  <si>
-    <t>5449000020987</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000131836</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>54490130</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000214744</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>40822426</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>18
+    <t xml:space="preserve">Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000054227, 5449000228970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000008046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000006271, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000050939, 5449000228956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54491069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000020987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54490130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000214744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18
 19</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>5449000131768</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>5060335632906</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>21
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000131768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060335632906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21
 22</t>
   </si>
   <si>
-    <t>Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t>5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t>Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>24
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24
 25
 26
 27
@@ -467,299 +462,305 @@
 31</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>4607042434877</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>4607042434891</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>4607042438738</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>4607042434884</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>4607174577787</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>4607042438950</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>4650075420980</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>4607042430619</t>
-  </si>
-  <si>
-    <t>STANDARD 27</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>33 
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042438738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042434884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607174577787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042438950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4650075420980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607042430619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 
 34</t>
   </si>
   <si>
-    <t>Juice Display: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Juice Display: Lead SKU Dobriy - Apple</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной СКЮ Добрый Яблоко/</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>35
+    <t xml:space="preserve">Juice Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display: Lead SKU Dobriy - Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной СКЮ Добрый Яблоко/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35
 57</t>
   </si>
   <si>
-    <t>Juice Display: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display: Lead Dobriy - Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>37
+    <t xml:space="preserve">Juice Display: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display: Lead Dobriy - Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
 38
 39</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t>Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>FC 1 door, FC door 1.5 door</t>
-  </si>
-  <si>
-    <t>filled collers target</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Cooler: CCH Cooler Doors FC</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании FC</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC 1 door, FC door 1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filled collers target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings and with fullness of TCCC product not less than 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: CCH Cooler Doors FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". </t>
   </si>
   <si>
-    <t>Cooler: Max 15</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>43
+    <t xml:space="preserve">Cooler: Max 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43
 45
 48</t>
   </si>
   <si>
-    <t>Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Barnd: Coca-Cola</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t>46
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% Кока-Кола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnd: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door, SSD  1.5 door, Mixed 1 door, Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46
 47</t>
   </si>
   <si>
-    <t>Cooler: Merch Priorty STD fuze shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">SSD 1 door
@@ -771,16 +772,19 @@
 </t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
-  </si>
-  <si>
-    <t>SSD 1 door
+    <t xml:space="preserve">2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door
 NSB 1 door
 Mixed 1 door
 SSD 1.5 door
@@ -788,70 +792,70 @@
 Mixed  1.5 door</t>
   </si>
   <si>
-    <t>Cooler: Merch Priorty STD every SKUs min 2 facing</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
-  </si>
-  <si>
-    <t>each SKU hits facings target</t>
-  </si>
-  <si>
-    <t>Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>sum of KPI scores</t>
-  </si>
-  <si>
-    <t>Decimal.2</t>
-  </si>
-  <si>
-    <t>SESSION LEVEL</t>
-  </si>
-  <si>
-    <t>40
+    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU мин 2 фейсинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each SKU hits facings target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESSION LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40
 41
 42
 49</t>
   </si>
   <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>COOLER_DOORS</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t>SCENE LEVEL</t>
-  </si>
-  <si>
-    <t>SSD 1 door
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOLER_DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE LEVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD 1 door
 NSB 1 door
 Mixed 1 door
 FC 1 door
@@ -861,22 +865,22 @@
 FC door 1.5 door</t>
   </si>
   <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP_ACTIVATED</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP_ACTIVATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Other SSD Display
@@ -915,19 +919,19 @@
 </t>
   </si>
   <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>DISPLAY_ZONES</t>
-  </si>
-  <si>
-    <t>Display Zones</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>Promo SSD
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPLAY_ZONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo SSD
 Promo Water
 Promo Energy
 Promo Fuzetea
@@ -966,26 +970,22 @@
 Energy Other
 Promo Juice</t>
   </si>
-  <si>
-    <t>Brand: Fuzetea</t>
-  </si>
-  <si>
-    <t>Fuzetea</t>
-  </si>
-  <si>
-    <t>Brand: Coca-Cola</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -994,7 +994,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1022,8 +1037,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1047,136 +1062,183 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="30">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1202,7 +1264,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1223,385 +1285,82 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMF60"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53:P54"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1"/>
-    <col min="2" max="2" width="11" style="1"/>
-    <col min="3" max="3" width="21" style="1"/>
-    <col min="4" max="4" width="10.85546875" style="1"/>
-    <col min="5" max="5" width="15.140625" style="1"/>
-    <col min="6" max="6" width="45.5703125" style="1"/>
-    <col min="7" max="7" width="65.28515625" style="1"/>
-    <col min="8" max="8" width="41.7109375" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="13.42578125" style="1"/>
-    <col min="13" max="13" width="26.5703125" style="1"/>
-    <col min="14" max="14" width="27.7109375" style="1"/>
-    <col min="15" max="15" width="19.5703125" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="18.5703125" style="1"/>
-    <col min="18" max="18" width="13.42578125" style="1"/>
-    <col min="19" max="19" width="7" style="1"/>
-    <col min="20" max="20" width="13.85546875" style="1"/>
-    <col min="21" max="21" width="17.42578125" style="1"/>
-    <col min="22" max="22" width="22.42578125" style="1"/>
-    <col min="23" max="23" width="21.7109375" style="1"/>
-    <col min="24" max="24" width="46.42578125" style="1"/>
-    <col min="25" max="25" width="22.85546875" style="1"/>
-    <col min="26" max="26" width="25.28515625" style="1"/>
-    <col min="27" max="27" width="25.5703125" style="1"/>
-    <col min="28" max="28" width="15.5703125" style="1"/>
-    <col min="29" max="29" width="25.5703125" style="1"/>
-    <col min="30" max="30" width="13.42578125" style="1"/>
-    <col min="31" max="31" width="12.5703125" style="1"/>
-    <col min="32" max="32" width="13" style="1"/>
-    <col min="33" max="33" width="90.7109375" style="1"/>
-    <col min="34" max="34" width="81.28515625" style="1"/>
-    <col min="35" max="35" width="7.5703125" style="1"/>
-    <col min="36" max="36" width="8.7109375" style="1"/>
-    <col min="37" max="37" width="10.5703125" style="1"/>
-    <col min="38" max="1025" width="9.140625" style="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.4777327935223"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1720,8 +1479,8 @@
       <c r="AME1" s="6"/>
       <c r="AMF1" s="6"/>
     </row>
-    <row r="2" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1769,10 +1528,10 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="11">
+      <c r="AI2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="11" t="n">
         <v>300</v>
       </c>
       <c r="AK2" s="12" t="s">
@@ -1783,8 +1542,8 @@
       <c r="AME2" s="13"/>
       <c r="AMF2" s="13"/>
     </row>
-    <row r="3" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1832,13 +1591,13 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="11">
+      <c r="AI3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="11" t="n">
         <v>301</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="11" t="n">
         <v>303</v>
       </c>
       <c r="AL3" s="11"/>
@@ -1846,8 +1605,8 @@
       <c r="AME3" s="6"/>
       <c r="AMF3" s="6"/>
     </row>
-    <row r="4" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1895,24 +1654,24 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="11">
+      <c r="AI4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="15" t="n">
         <v>303</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="AL4" s="11">
+      <c r="AL4" s="11" t="n">
         <v>301</v>
       </c>
       <c r="AMD4" s="6"/>
       <c r="AME4" s="6"/>
       <c r="AMF4" s="6"/>
     </row>
-    <row r="5" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
         <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1960,10 +1719,10 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="11">
+      <c r="AI5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="15" t="n">
         <v>310</v>
       </c>
       <c r="AK5" s="12" t="s">
@@ -1974,8 +1733,8 @@
       <c r="AME5" s="6"/>
       <c r="AMF5" s="6"/>
     </row>
-    <row r="6" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
         <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2023,24 +1782,24 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
-      <c r="AI6" s="11">
+      <c r="AI6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ6" s="15" t="n">
         <v>311</v>
       </c>
-      <c r="AK6" s="7">
+      <c r="AK6" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="7" t="n">
         <v>310</v>
       </c>
       <c r="AMD6" s="6"/>
       <c r="AME6" s="6"/>
       <c r="AMF6" s="6"/>
     </row>
-    <row r="7" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
         <v>68</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2088,24 +1847,24 @@
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
-      <c r="AI7" s="11">
+      <c r="AI7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AJ7" s="15" t="n">
         <v>312</v>
       </c>
       <c r="AK7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="11" t="n">
         <v>310</v>
       </c>
       <c r="AMD7" s="6"/>
       <c r="AME7" s="6"/>
       <c r="AMF7" s="6"/>
     </row>
-    <row r="8" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2157,24 +1916,24 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7">
+      <c r="AI8" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AK8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AL8" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMD8" s="6"/>
       <c r="AME8" s="6"/>
       <c r="AMF8" s="6"/>
     </row>
-    <row r="9" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2199,7 +1958,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="J9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="7"/>
@@ -2235,29 +1994,29 @@
       <c r="AC9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="20">
-        <v>2.1437000000000001E-2</v>
+      <c r="AD9" s="20" t="n">
+        <v>0.021437</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7">
+      <c r="AI9" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" s="7">
+      <c r="AJ9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7">
+      <c r="AL9" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD9" s="6"/>
       <c r="AME9" s="6"/>
       <c r="AMF9" s="6"/>
     </row>
-    <row r="10" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2282,7 +2041,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7">
+      <c r="J10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
@@ -2318,29 +2077,29 @@
       <c r="AC10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD10" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
-      <c r="AI10" s="7">
+      <c r="AI10" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" s="7">
+      <c r="AJ10" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7">
+      <c r="AL10" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD10" s="6"/>
       <c r="AME10" s="6"/>
       <c r="AMF10" s="6"/>
     </row>
-    <row r="11" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2365,7 +2124,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7">
+      <c r="J11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="7"/>
@@ -2401,29 +2160,29 @@
       <c r="AC11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD11" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="7">
+      <c r="AI11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ11" s="7">
+      <c r="AJ11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7">
+      <c r="AL11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD11" s="6"/>
       <c r="AME11" s="6"/>
       <c r="AMF11" s="6"/>
     </row>
-    <row r="12" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2448,7 +2207,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7">
+      <c r="J12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
@@ -2484,29 +2243,29 @@
       <c r="AC12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD12" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="7">
+      <c r="AI12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7">
+      <c r="AJ12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7">
+      <c r="AL12" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD12" s="6"/>
       <c r="AME12" s="6"/>
       <c r="AMF12" s="6"/>
     </row>
-    <row r="13" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2531,7 +2290,7 @@
         <v>62</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7">
+      <c r="J13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
@@ -2567,29 +2326,29 @@
       <c r="AC13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD13" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="7">
+      <c r="AI13" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ13" s="7">
+      <c r="AJ13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7">
+      <c r="AL13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD13" s="6"/>
       <c r="AME13" s="6"/>
       <c r="AMF13" s="6"/>
     </row>
-    <row r="14" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2614,7 +2373,7 @@
         <v>62</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7">
+      <c r="J14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="7"/>
@@ -2650,29 +2409,29 @@
       <c r="AC14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD14" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="7">
+      <c r="AI14" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AJ14" s="7" t="n">
         <v>7</v>
       </c>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7">
+      <c r="AL14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD14" s="6"/>
       <c r="AME14" s="6"/>
       <c r="AMF14" s="6"/>
     </row>
-    <row r="15" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2697,7 +2456,7 @@
         <v>62</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="J15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="7"/>
@@ -2733,29 +2492,29 @@
       <c r="AC15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD15" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="7">
+      <c r="AI15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AJ15" s="7" t="n">
         <v>8</v>
       </c>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7">
+      <c r="AL15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD15" s="6"/>
       <c r="AME15" s="6"/>
       <c r="AMF15" s="6"/>
     </row>
-    <row r="16" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2814,29 +2573,29 @@
       <c r="AC16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="20">
-        <v>2.1371000000000001E-2</v>
+      <c r="AD16" s="20" t="n">
+        <v>0.021371</v>
       </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="7">
+      <c r="AI16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="7" t="n">
         <v>9</v>
       </c>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7">
+      <c r="AL16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD16" s="6"/>
       <c r="AME16" s="6"/>
       <c r="AMF16" s="6"/>
     </row>
-    <row r="17" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2861,7 +2620,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="J17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K17" s="7"/>
@@ -2897,29 +2656,29 @@
       <c r="AC17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="20">
-        <v>1.0011000000000001E-2</v>
+      <c r="AD17" s="20" t="n">
+        <v>0.010011</v>
       </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="7">
+      <c r="AI17" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AJ17" s="7" t="n">
         <v>10</v>
       </c>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7">
+      <c r="AL17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD17" s="6"/>
       <c r="AME17" s="6"/>
       <c r="AMF17" s="6"/>
     </row>
-    <row r="18" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2944,7 +2703,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="J18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="7"/>
@@ -2980,29 +2739,29 @@
       <c r="AC18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="20">
-        <v>9.9889999999999996E-3</v>
+      <c r="AD18" s="20" t="n">
+        <v>0.009989</v>
       </c>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="7">
+      <c r="AI18" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AJ18" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7">
+      <c r="AL18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD18" s="6"/>
       <c r="AME18" s="6"/>
       <c r="AMF18" s="6"/>
     </row>
-    <row r="19" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3027,7 +2786,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="J19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="7"/>
@@ -3063,29 +2822,29 @@
       <c r="AC19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="20">
-        <v>9.9889999999999996E-3</v>
+      <c r="AD19" s="20" t="n">
+        <v>0.009989</v>
       </c>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="7">
+      <c r="AI19" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AJ19" s="7" t="n">
         <v>12</v>
       </c>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7">
+      <c r="AL19" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD19" s="6"/>
       <c r="AME19" s="6"/>
       <c r="AMF19" s="6"/>
     </row>
-    <row r="20" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3110,7 +2869,7 @@
         <v>62</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7">
+      <c r="J20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="7"/>
@@ -3146,29 +2905,29 @@
       <c r="AC20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="20">
-        <v>9.9889999999999996E-3</v>
+      <c r="AD20" s="20" t="n">
+        <v>0.009989</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="7">
+      <c r="AI20" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7">
+      <c r="AJ20" s="7" t="n">
         <v>13</v>
       </c>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7">
+      <c r="AL20" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD20" s="13"/>
       <c r="AME20" s="13"/>
       <c r="AMF20" s="13"/>
     </row>
-    <row r="21" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3193,7 +2952,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="J21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="7"/>
@@ -3229,29 +2988,29 @@
       <c r="AC21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="20">
-        <v>9.9889999999999996E-3</v>
+      <c r="AD21" s="20" t="n">
+        <v>0.009989</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="7">
+      <c r="AI21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7">
+      <c r="AJ21" s="7" t="n">
         <v>14</v>
       </c>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7">
+      <c r="AL21" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AMD21" s="6"/>
       <c r="AME21" s="6"/>
       <c r="AMF21" s="6"/>
     </row>
-    <row r="22" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3303,24 +3062,24 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="7">
+      <c r="AI22" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" s="7">
+      <c r="AJ22" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="AK22" s="7">
+      <c r="AK22" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="7">
+      <c r="AL22" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMD22" s="6"/>
       <c r="AME22" s="6"/>
       <c r="AMF22" s="6"/>
     </row>
-    <row r="23" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3345,7 +3104,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7">
+      <c r="J23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="7"/>
@@ -3381,29 +3140,29 @@
       <c r="AC23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD23" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="7">
+      <c r="AI23" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7">
+      <c r="AJ23" s="7" t="n">
         <v>16</v>
       </c>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7">
+      <c r="AL23" s="7" t="n">
         <v>15</v>
       </c>
       <c r="AMD23" s="6"/>
       <c r="AME23" s="6"/>
       <c r="AMF23" s="6"/>
     </row>
-    <row r="24" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3455,24 +3214,24 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="7">
+      <c r="AI24" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ24" s="7">
+      <c r="AJ24" s="7" t="n">
         <v>17</v>
       </c>
       <c r="AK24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="AL24" s="7">
+      <c r="AL24" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMD24" s="6"/>
       <c r="AME24" s="6"/>
       <c r="AMF24" s="6"/>
     </row>
-    <row r="25" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3497,7 +3256,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="J25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="7"/>
@@ -3533,29 +3292,29 @@
       <c r="AC25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD25" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="7">
+      <c r="AI25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7">
+      <c r="AJ25" s="7" t="n">
         <v>18</v>
       </c>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7">
+      <c r="AL25" s="7" t="n">
         <v>17</v>
       </c>
       <c r="AMD25" s="6"/>
       <c r="AME25" s="6"/>
       <c r="AMF25" s="6"/>
     </row>
-    <row r="26" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3580,7 +3339,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="J26" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="7"/>
@@ -3616,29 +3375,29 @@
       <c r="AC26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD26" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
-      <c r="AI26" s="7">
+      <c r="AI26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7">
+      <c r="AJ26" s="7" t="n">
         <v>19</v>
       </c>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7">
+      <c r="AL26" s="7" t="n">
         <v>17</v>
       </c>
       <c r="AMD26" s="6"/>
       <c r="AME26" s="6"/>
       <c r="AMF26" s="6"/>
     </row>
-    <row r="27" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -3690,24 +3449,24 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="7">
+      <c r="AI27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ27" s="7">
+      <c r="AJ27" s="7" t="n">
         <v>20</v>
       </c>
       <c r="AK27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" s="7">
+      <c r="AL27" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMD27" s="6"/>
       <c r="AME27" s="6"/>
       <c r="AMF27" s="6"/>
     </row>
-    <row r="28" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -3732,7 +3491,7 @@
         <v>62</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7">
+      <c r="J28" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="7"/>
@@ -3768,29 +3527,29 @@
       <c r="AC28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD28" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="7">
+      <c r="AI28" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="7" t="n">
         <v>21</v>
       </c>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7">
+      <c r="AL28" s="7" t="n">
         <v>20</v>
       </c>
       <c r="AMD28" s="13"/>
       <c r="AME28" s="13"/>
       <c r="AMF28" s="13"/>
     </row>
-    <row r="29" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -3815,7 +3574,7 @@
         <v>62</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
+      <c r="J29" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="7"/>
@@ -3851,29 +3610,29 @@
       <c r="AC29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="20">
-        <v>1.0007E-2</v>
+      <c r="AD29" s="20" t="n">
+        <v>0.010007</v>
       </c>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="7">
+      <c r="AI29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AJ29" s="7" t="n">
         <v>22</v>
       </c>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7">
+      <c r="AL29" s="7" t="n">
         <v>20</v>
       </c>
       <c r="AMD29" s="6"/>
       <c r="AME29" s="6"/>
       <c r="AMF29" s="6"/>
     </row>
-    <row r="30" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -3925,24 +3684,24 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="7">
+      <c r="AI30" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ30" s="7">
+      <c r="AJ30" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AK30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AL30" s="7">
+      <c r="AL30" s="7" t="n">
         <v>300</v>
       </c>
       <c r="AMD30" s="6"/>
       <c r="AME30" s="6"/>
       <c r="AMF30" s="6"/>
     </row>
-    <row r="31" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
         <v>24</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -3967,7 +3726,7 @@
         <v>62</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7">
+      <c r="J31" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="7"/>
@@ -4003,29 +3762,29 @@
       <c r="AC31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD31" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="7">
+      <c r="AI31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7">
+      <c r="AJ31" s="7" t="n">
         <v>24</v>
       </c>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="7">
+      <c r="AL31" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD31" s="6"/>
       <c r="AME31" s="6"/>
       <c r="AMF31" s="6"/>
     </row>
-    <row r="32" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
         <v>25</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4050,7 +3809,7 @@
         <v>62</v>
       </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7">
+      <c r="J32" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="7"/>
@@ -4086,29 +3845,29 @@
       <c r="AC32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD32" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="7">
+      <c r="AI32" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7">
+      <c r="AJ32" s="7" t="n">
         <v>25</v>
       </c>
       <c r="AK32" s="7"/>
-      <c r="AL32" s="7">
+      <c r="AL32" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD32" s="6"/>
       <c r="AME32" s="6"/>
       <c r="AMF32" s="6"/>
     </row>
-    <row r="33" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
         <v>26</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4133,7 +3892,7 @@
         <v>62</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7">
+      <c r="J33" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="7"/>
@@ -4169,29 +3928,29 @@
       <c r="AC33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD33" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7">
+      <c r="AI33" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7">
+      <c r="AJ33" s="7" t="n">
         <v>26</v>
       </c>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="7">
+      <c r="AL33" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD33" s="6"/>
       <c r="AME33" s="6"/>
       <c r="AMF33" s="6"/>
     </row>
-    <row r="34" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4216,7 +3975,7 @@
         <v>62</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="7">
+      <c r="J34" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="7"/>
@@ -4252,29 +4011,29 @@
       <c r="AC34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD34" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7">
+      <c r="AI34" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7">
+      <c r="AJ34" s="7" t="n">
         <v>27</v>
       </c>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7">
+      <c r="AL34" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD34" s="6"/>
       <c r="AME34" s="6"/>
       <c r="AMF34" s="6"/>
     </row>
-    <row r="35" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -4299,7 +4058,7 @@
         <v>62</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="7">
+      <c r="J35" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="7"/>
@@ -4335,29 +4094,29 @@
       <c r="AC35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="20">
-        <v>2.0999E-2</v>
+      <c r="AD35" s="20" t="n">
+        <v>0.020999</v>
       </c>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="7">
+      <c r="AI35" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7">
+      <c r="AJ35" s="7" t="n">
         <v>28</v>
       </c>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="7">
+      <c r="AL35" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD35" s="6"/>
       <c r="AME35" s="6"/>
       <c r="AMF35" s="6"/>
     </row>
-    <row r="36" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
         <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -4382,7 +4141,7 @@
         <v>62</v>
       </c>
       <c r="I36" s="7"/>
-      <c r="J36" s="7">
+      <c r="J36" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="7"/>
@@ -4418,29 +4177,29 @@
       <c r="AC36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="20">
-        <v>1.0007E-2</v>
+      <c r="AD36" s="20" t="n">
+        <v>0.010007</v>
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
-      <c r="AI36" s="7">
+      <c r="AI36" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AJ36" s="7" t="n">
         <v>29</v>
       </c>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7">
+      <c r="AL36" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD36" s="6"/>
       <c r="AME36" s="6"/>
       <c r="AMF36" s="6"/>
     </row>
-    <row r="37" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -4465,7 +4224,7 @@
         <v>62</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="7">
+      <c r="J37" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="7"/>
@@ -4501,29 +4260,29 @@
       <c r="AC37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="20">
-        <v>1.0007E-2</v>
+      <c r="AD37" s="20" t="n">
+        <v>0.010007</v>
       </c>
       <c r="AE37" s="17"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
-      <c r="AI37" s="7">
+      <c r="AI37" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AJ37" s="7" t="n">
         <v>30</v>
       </c>
       <c r="AK37" s="7"/>
-      <c r="AL37" s="7">
+      <c r="AL37" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD37" s="13"/>
       <c r="AME37" s="13"/>
       <c r="AMF37" s="13"/>
     </row>
-    <row r="38" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
         <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -4548,7 +4307,7 @@
         <v>62</v>
       </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7">
+      <c r="J38" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="7"/>
@@ -4584,29 +4343,29 @@
       <c r="AC38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="20">
-        <v>9.9869999999999994E-3</v>
+      <c r="AD38" s="20" t="n">
+        <v>0.009987</v>
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="7">
+      <c r="AI38" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7">
+      <c r="AJ38" s="7" t="n">
         <v>31</v>
       </c>
       <c r="AK38" s="7"/>
-      <c r="AL38" s="7">
+      <c r="AL38" s="7" t="n">
         <v>23</v>
       </c>
       <c r="AMD38" s="6"/>
       <c r="AME38" s="6"/>
       <c r="AMF38" s="6"/>
     </row>
-    <row r="39" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
         <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -4631,7 +4390,7 @@
         <v>159</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="7">
+      <c r="J39" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K39" s="7"/>
@@ -4659,31 +4418,31 @@
       <c r="AC39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="20">
+      <c r="AD39" s="20" t="n">
         <v>0.15</v>
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
-      <c r="AI39" s="7">
+      <c r="AI39" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7">
+      <c r="AJ39" s="7" t="n">
         <v>32</v>
       </c>
       <c r="AK39" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AL39" s="23">
+      <c r="AL39" s="23" t="n">
         <v>303</v>
       </c>
       <c r="AMD39" s="6"/>
       <c r="AME39" s="6"/>
       <c r="AMF39" s="6"/>
     </row>
-    <row r="40" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -4708,7 +4467,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="7">
+      <c r="J40" s="7" t="n">
         <v>12</v>
       </c>
       <c r="K40" s="7"/>
@@ -4747,22 +4506,22 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="7">
+      <c r="AI40" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7">
+      <c r="AJ40" s="7" t="n">
         <v>33</v>
       </c>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7">
+      <c r="AL40" s="7" t="n">
         <v>32</v>
       </c>
       <c r="AMD40" s="6"/>
       <c r="AME40" s="6"/>
       <c r="AMF40" s="6"/>
     </row>
-    <row r="41" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
         <v>34</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -4787,7 +4546,7 @@
         <v>169</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="7">
+      <c r="J41" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="7"/>
@@ -4820,24 +4579,24 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
-      <c r="AI41" s="7">
+      <c r="AI41" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AJ41" s="7" t="n">
         <v>34</v>
       </c>
       <c r="AK41" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="AL41" s="7">
+      <c r="AL41" s="7" t="n">
         <v>32</v>
       </c>
       <c r="AMD41" s="6"/>
       <c r="AME41" s="6"/>
       <c r="AMF41" s="6"/>
     </row>
-    <row r="42" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -4868,7 +4627,7 @@
       <c r="M42" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="11" t="n">
         <v>4607042434877</v>
       </c>
       <c r="O42" s="11"/>
@@ -4901,22 +4660,22 @@
       <c r="AH42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="AI42" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ42" s="7">
+      <c r="AJ42" s="7" t="n">
         <v>57</v>
       </c>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7">
+      <c r="AL42" s="7" t="n">
         <v>34</v>
       </c>
       <c r="AMD42" s="6"/>
       <c r="AME42" s="6"/>
       <c r="AMF42" s="6"/>
     </row>
-    <row r="43" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -4980,22 +4739,22 @@
       <c r="AH43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AI43" s="7">
+      <c r="AI43" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ43" s="7">
+      <c r="AJ43" s="7" t="n">
         <v>35</v>
       </c>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7">
+      <c r="AL43" s="7" t="n">
         <v>34</v>
       </c>
       <c r="AMD43" s="6"/>
       <c r="AME43" s="6"/>
       <c r="AMF43" s="6"/>
     </row>
-    <row r="44" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="n">
         <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -5044,7 +4803,7 @@
       <c r="AC44" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD44" s="20">
+      <c r="AD44" s="20" t="n">
         <v>0.24</v>
       </c>
       <c r="AE44" s="7"/>
@@ -5053,24 +4812,24 @@
       <c r="AH44" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AI44" s="7">
+      <c r="AI44" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ44" s="7">
+      <c r="AJ44" s="7" t="n">
         <v>36</v>
       </c>
       <c r="AK44" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="AL44" s="15">
+      <c r="AL44" s="15" t="n">
         <v>311</v>
       </c>
       <c r="AMD44" s="6"/>
       <c r="AME44" s="6"/>
       <c r="AMF44" s="6"/>
     </row>
-    <row r="45" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
         <v>37</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -5095,10 +4854,10 @@
         <v>188</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="7">
+      <c r="J45" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="7" t="n">
         <v>30</v>
       </c>
       <c r="L45" s="7"/>
@@ -5140,22 +4899,22 @@
       <c r="AH45" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="AI45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7">
+      <c r="AJ45" s="7" t="n">
         <v>37</v>
       </c>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7">
+      <c r="AL45" s="7" t="n">
         <v>36</v>
       </c>
       <c r="AMD45" s="6"/>
       <c r="AME45" s="6"/>
       <c r="AMF45" s="6"/>
     </row>
-    <row r="46" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="n">
         <v>38</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -5180,10 +4939,10 @@
         <v>188</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="7">
+      <c r="J46" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="7" t="n">
         <v>24</v>
       </c>
       <c r="L46" s="7"/>
@@ -5225,22 +4984,22 @@
       <c r="AH46" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AI46" s="7">
+      <c r="AI46" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ46" s="7">
+      <c r="AJ46" s="7" t="n">
         <v>38</v>
       </c>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7">
+      <c r="AL46" s="7" t="n">
         <v>36</v>
       </c>
       <c r="AMD46" s="6"/>
       <c r="AME46" s="6"/>
       <c r="AMF46" s="6"/>
     </row>
-    <row r="47" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
         <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -5265,7 +5024,7 @@
         <v>201</v>
       </c>
       <c r="I47" s="7"/>
-      <c r="J47" s="7">
+      <c r="J47" s="7" t="n">
         <v>0.01</v>
       </c>
       <c r="K47" s="7"/>
@@ -5302,22 +5061,22 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
-      <c r="AI47" s="7">
+      <c r="AI47" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ47" s="7">
+      <c r="AJ47" s="7" t="n">
         <v>39</v>
       </c>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7">
+      <c r="AL47" s="7" t="n">
         <v>36</v>
       </c>
       <c r="AMD47" s="6"/>
       <c r="AME47" s="6"/>
       <c r="AMF47" s="6"/>
     </row>
-    <row r="48" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="n">
         <v>40</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -5342,7 +5101,7 @@
         <v>206</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="7">
+      <c r="J48" s="7" t="n">
         <v>1</v>
       </c>
       <c r="K48" s="7"/>
@@ -5374,7 +5133,7 @@
       <c r="AC48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="20">
+      <c r="AD48" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE48" s="7"/>
@@ -5385,22 +5144,22 @@
       <c r="AH48" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI48" s="7">
+      <c r="AI48" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ48" s="7">
+      <c r="AJ48" s="7" t="n">
         <v>40</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="24">
+      <c r="AL48" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD48" s="6"/>
       <c r="AME48" s="6"/>
       <c r="AMF48" s="6"/>
     </row>
-    <row r="49" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="n">
         <v>41</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -5426,10 +5185,10 @@
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7">
+      <c r="K49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="7" t="n">
         <v>15</v>
       </c>
       <c r="M49" s="7" t="s">
@@ -5461,7 +5220,7 @@
       <c r="AC49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="20">
+      <c r="AD49" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE49" s="7"/>
@@ -5472,22 +5231,22 @@
       <c r="AH49" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI49" s="7">
+      <c r="AI49" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ49" s="7">
+      <c r="AJ49" s="7" t="n">
         <v>41</v>
       </c>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="24">
+      <c r="AL49" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD49" s="6"/>
       <c r="AME49" s="6"/>
       <c r="AMF49" s="6"/>
     </row>
-    <row r="50" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="n">
         <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -5538,13 +5297,13 @@
       <c r="AC50" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AD50" s="20">
+      <c r="AD50" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AE50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AF50" s="7">
+      <c r="AF50" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AG50" s="7" t="s">
@@ -5553,24 +5312,24 @@
       <c r="AH50" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI50" s="7">
+      <c r="AI50" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ50" s="7">
+      <c r="AJ50" s="7" t="n">
         <v>42</v>
       </c>
       <c r="AK50" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="AL50" s="24">
+      <c r="AL50" s="24" t="n">
         <v>312</v>
       </c>
       <c r="AMD50" s="6"/>
       <c r="AME50" s="6"/>
       <c r="AMF50" s="6"/>
     </row>
-    <row r="51" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="n">
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -5593,7 +5352,7 @@
         <v>220</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="7">
+      <c r="J51" s="7" t="n">
         <v>0.4</v>
       </c>
       <c r="K51" s="7"/>
@@ -5640,19 +5399,19 @@
       <c r="AH51" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI51" s="7">
+      <c r="AI51" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ51" s="7">
+      <c r="AJ51" s="7" t="n">
         <v>43</v>
       </c>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="7">
+      <c r="AL51" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="n">
         <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -5675,7 +5434,7 @@
         <v>169</v>
       </c>
       <c r="I52" s="17"/>
-      <c r="J52" s="7">
+      <c r="J52" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K52" s="7"/>
@@ -5712,21 +5471,21 @@
       <c r="AH52" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI52" s="7">
+      <c r="AI52" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ52" s="7">
+      <c r="AJ52" s="7" t="n">
         <v>45</v>
       </c>
       <c r="AK52" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AL52" s="7">
+      <c r="AL52" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="n">
         <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -5742,27 +5501,27 @@
       <c r="F53" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="28" t="s">
-        <v>233</v>
+      <c r="G53" s="27" t="s">
+        <v>229</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>62</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="7">
+      <c r="J53" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30" t="s">
-        <v>269</v>
+      <c r="L53" s="6"/>
+      <c r="M53" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28" t="s">
+        <v>231</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>64</v>
@@ -5778,13 +5537,13 @@
         <v>192</v>
       </c>
       <c r="X53" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AC53" s="7" t="s">
         <v>68</v>
@@ -5798,19 +5557,19 @@
       <c r="AH53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI53" s="7">
+      <c r="AI53" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ53" s="7">
+      <c r="AJ53" s="7" t="n">
         <v>46</v>
       </c>
       <c r="AK53" s="7"/>
-      <c r="AL53" s="7">
+      <c r="AL53" s="7" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="n">
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -5824,28 +5583,28 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>62</v>
       </c>
       <c r="I54" s="7"/>
-      <c r="J54" s="7">
+      <c r="J54" s="7" t="n">
         <v>4</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="N54" s="30" t="s">
+      <c r="M54" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="N54" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30" t="s">
+      <c r="O54" s="28"/>
+      <c r="P54" s="28" t="s">
         <v>222</v>
       </c>
       <c r="Q54" s="7" t="s">
@@ -5862,13 +5621,13 @@
         <v>192</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AC54" s="7" t="s">
         <v>68</v>
@@ -5882,19 +5641,19 @@
       <c r="AH54" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI54" s="7">
+      <c r="AI54" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ54" s="7">
+      <c r="AJ54" s="7" t="n">
         <v>47</v>
       </c>
       <c r="AK54" s="7"/>
-      <c r="AL54" s="7">
+      <c r="AL54" s="7" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="n">
         <v>48</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -5908,16 +5667,16 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I55" s="17"/>
-      <c r="J55" s="7">
+      <c r="J55" s="7" t="n">
         <v>2</v>
       </c>
       <c r="K55" s="7"/>
@@ -5944,7 +5703,7 @@
         <v>192</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -5962,19 +5721,19 @@
       <c r="AH55" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI55" s="7">
+      <c r="AI55" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ55" s="7">
+      <c r="AJ55" s="7" t="n">
         <v>48</v>
       </c>
       <c r="AK55" s="7"/>
-      <c r="AL55" s="7">
+      <c r="AL55" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="n">
         <v>49</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -5990,13 +5749,13 @@
         <v>203</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -6027,7 +5786,7 @@
       <c r="AC56" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="AD56" s="20">
+      <c r="AD56" s="20" t="n">
         <v>0.04</v>
       </c>
       <c r="AE56" s="7"/>
@@ -6038,19 +5797,19 @@
       <c r="AH56" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AI56" s="7">
+      <c r="AI56" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AJ56" s="7">
+      <c r="AJ56" s="7" t="n">
         <v>49</v>
       </c>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="24">
+      <c r="AL56" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -6060,22 +5819,22 @@
         <v>39</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G57" s="27" t="s">
         <v>244</v>
       </c>
+      <c r="E57" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>247</v>
+      </c>
       <c r="H57" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -6086,7 +5845,7 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -6105,16 +5864,16 @@
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
-      <c r="AJ57" s="7">
+      <c r="AJ57" s="7" t="n">
         <v>50</v>
       </c>
       <c r="AK57" s="16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL57" s="7"/>
     </row>
-    <row r="58" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -6124,35 +5883,35 @@
         <v>39</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -6162,7 +5921,7 @@
         <v>192</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
@@ -6175,14 +5934,14 @@
       <c r="AG58" s="7"/>
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="7">
+      <c r="AJ58" s="7" t="n">
         <v>51</v>
       </c>
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -6192,35 +5951,35 @@
         <v>39</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>258</v>
+        <v>244</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -6228,7 +5987,7 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -6241,14 +6000,14 @@
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
-      <c r="AJ59" s="7">
+      <c r="AJ59" s="7" t="n">
         <v>52</v>
       </c>
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" spans="1:1020" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="n">
         <v>54</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -6258,35 +6017,35 @@
         <v>39</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -6294,7 +6053,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
       <c r="X60" s="16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
@@ -6307,15 +6066,21 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
-      <c r="AJ60" s="7">
+      <c r="AJ60" s="7" t="n">
         <v>54</v>
       </c>
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <autoFilter ref="A1:AL60"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -710,9 +711,6 @@
   </si>
   <si>
     <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
     <t xml:space="preserve">43
@@ -975,15 +973,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00%"/>
-    <numFmt numFmtId="170" formatCode="@"/>
-    <numFmt numFmtId="171" formatCode="D\-MMM"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="D\-MMM"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1101,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1109,12 +1108,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,7 +1133,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,14 +1149,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1158,7 +1157,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1166,11 +1177,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1186,23 +1197,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1222,7 +1237,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1313,47 +1332,47 @@
   </sheetPr>
   <dimension ref="A1:AMF60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AE50" activeCellId="0" sqref="AE50:AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="91.4777327935223"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.2307692307692"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -1361,4716 +1380,4712 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AMD1" s="6"/>
-      <c r="AME1" s="6"/>
-      <c r="AMF1" s="6"/>
+      <c r="AMD1" s="8"/>
+      <c r="AME1" s="8"/>
+      <c r="AMF1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="11" t="n">
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="14" t="n">
         <v>300</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="11"/>
-      <c r="AMD2" s="6"/>
-      <c r="AME2" s="13"/>
-      <c r="AMF2" s="13"/>
+      <c r="AL2" s="14"/>
+      <c r="AMD2" s="8"/>
+      <c r="AME2" s="16"/>
+      <c r="AMF2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="11" t="n">
+      <c r="H3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="14" t="n">
         <v>301</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="14" t="n">
         <v>303</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AMD3" s="6"/>
-      <c r="AME3" s="6"/>
-      <c r="AMF3" s="6"/>
+      <c r="AL3" s="14"/>
+      <c r="AMD3" s="8"/>
+      <c r="AME3" s="8"/>
+      <c r="AMF3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="11" t="n">
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ4" s="15" t="n">
+      <c r="AJ4" s="18" t="n">
         <v>303</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="14" t="n">
         <v>32</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="14" t="n">
         <v>301</v>
       </c>
-      <c r="AMD4" s="6"/>
-      <c r="AME4" s="6"/>
-      <c r="AMF4" s="6"/>
+      <c r="AMD4" s="8"/>
+      <c r="AME4" s="8"/>
+      <c r="AMF4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="11" t="n">
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" s="15" t="n">
+      <c r="AJ5" s="18" t="n">
         <v>310</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AK5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="11"/>
-      <c r="AMD5" s="6"/>
-      <c r="AME5" s="6"/>
-      <c r="AMF5" s="6"/>
+      <c r="AL5" s="14"/>
+      <c r="AMD5" s="8"/>
+      <c r="AME5" s="8"/>
+      <c r="AMF5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="11" t="n">
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ6" s="15" t="n">
+      <c r="AJ6" s="18" t="n">
         <v>311</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="9" t="n">
         <v>310</v>
       </c>
-      <c r="AMD6" s="6"/>
-      <c r="AME6" s="6"/>
-      <c r="AMF6" s="6"/>
+      <c r="AMD6" s="8"/>
+      <c r="AME6" s="8"/>
+      <c r="AMF6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="11" t="n">
+      <c r="H7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" s="15" t="n">
+      <c r="AJ7" s="18" t="n">
         <v>312</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AK7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="14" t="n">
         <v>310</v>
       </c>
-      <c r="AMD7" s="6"/>
-      <c r="AME7" s="6"/>
-      <c r="AMF7" s="6"/>
+      <c r="AMD7" s="8"/>
+      <c r="AME7" s="8"/>
+      <c r="AMF7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7" t="n">
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AMD8" s="6"/>
-      <c r="AME8" s="6"/>
-      <c r="AMF8" s="6"/>
+      <c r="AMD8" s="8"/>
+      <c r="AME8" s="8"/>
+      <c r="AMF8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="n">
+      <c r="I9" s="9"/>
+      <c r="J9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="18" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="7" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="s">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7" t="s">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" s="20" t="n">
+      <c r="AD9" s="23" t="n">
         <v>0.021437</v>
       </c>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7" t="n">
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ9" s="7" t="n">
+      <c r="AJ9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="n">
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD9" s="6"/>
-      <c r="AME9" s="6"/>
-      <c r="AMF9" s="6"/>
+      <c r="AMD9" s="8"/>
+      <c r="AME9" s="8"/>
+      <c r="AMF9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="n">
+      <c r="I10" s="9"/>
+      <c r="J10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="18" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7" t="s">
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7" t="s">
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD10" s="20" t="n">
+      <c r="AD10" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7" t="n">
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" s="7" t="n">
+      <c r="AJ10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7" t="n">
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD10" s="6"/>
-      <c r="AME10" s="6"/>
-      <c r="AMF10" s="6"/>
+      <c r="AMD10" s="8"/>
+      <c r="AME10" s="8"/>
+      <c r="AMF10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="n">
+      <c r="I11" s="9"/>
+      <c r="J11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="18" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7" t="s">
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="20" t="n">
+      <c r="AD11" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7" t="n">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7" t="n">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD11" s="6"/>
-      <c r="AME11" s="6"/>
-      <c r="AMF11" s="6"/>
+      <c r="AMD11" s="8"/>
+      <c r="AME11" s="8"/>
+      <c r="AMF11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="n">
+      <c r="I12" s="9"/>
+      <c r="J12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="18" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="7" t="s">
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7" t="s">
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7" t="s">
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD12" s="20" t="n">
+      <c r="AD12" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7" t="n">
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7" t="n">
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD12" s="6"/>
-      <c r="AME12" s="6"/>
-      <c r="AMF12" s="6"/>
+      <c r="AMD12" s="8"/>
+      <c r="AME12" s="8"/>
+      <c r="AMF12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="n">
+      <c r="I13" s="9"/>
+      <c r="J13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="18" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="7" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7" t="s">
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="20" t="n">
+      <c r="AD13" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7" t="n">
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7" t="n">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD13" s="6"/>
-      <c r="AME13" s="6"/>
-      <c r="AMF13" s="6"/>
+      <c r="AMD13" s="8"/>
+      <c r="AME13" s="8"/>
+      <c r="AMF13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="n">
+      <c r="I14" s="9"/>
+      <c r="J14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="18" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="s">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7" t="s">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7" t="s">
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD14" s="20" t="n">
+      <c r="AD14" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7" t="n">
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7" t="n">
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD14" s="6"/>
-      <c r="AME14" s="6"/>
-      <c r="AMF14" s="6"/>
+      <c r="AMD14" s="8"/>
+      <c r="AME14" s="8"/>
+      <c r="AMF14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="n">
+      <c r="I15" s="9"/>
+      <c r="J15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="18" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7" t="s">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="s">
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7" t="s">
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD15" s="20" t="n">
+      <c r="AD15" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="n">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7" t="n">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD15" s="6"/>
-      <c r="AME15" s="6"/>
-      <c r="AMF15" s="6"/>
+      <c r="AMD15" s="8"/>
+      <c r="AME15" s="8"/>
+      <c r="AMF15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="18" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7" t="s">
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7" t="s">
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" s="20" t="n">
+      <c r="AD16" s="23" t="n">
         <v>0.021371</v>
       </c>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="n">
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7" t="n">
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD16" s="6"/>
-      <c r="AME16" s="6"/>
-      <c r="AMF16" s="6"/>
+      <c r="AMD16" s="8"/>
+      <c r="AME16" s="8"/>
+      <c r="AMF16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="n">
+      <c r="I17" s="9"/>
+      <c r="J17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="18" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7" t="s">
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7" t="s">
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD17" s="20" t="n">
+      <c r="AD17" s="23" t="n">
         <v>0.010011</v>
       </c>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7" t="n">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7" t="n">
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD17" s="6"/>
-      <c r="AME17" s="6"/>
-      <c r="AMF17" s="6"/>
+      <c r="AMD17" s="8"/>
+      <c r="AME17" s="8"/>
+      <c r="AMF17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="n">
+      <c r="I18" s="9"/>
+      <c r="J18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="18" t="s">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="7" t="s">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7" t="s">
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" s="20" t="n">
+      <c r="AD18" s="23" t="n">
         <v>0.009989</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7" t="n">
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7" t="n">
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD18" s="6"/>
-      <c r="AME18" s="6"/>
-      <c r="AMF18" s="6"/>
+      <c r="AMD18" s="8"/>
+      <c r="AME18" s="8"/>
+      <c r="AMF18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="n">
+      <c r="I19" s="9"/>
+      <c r="J19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="18" t="s">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7" t="s">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7" t="s">
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD19" s="20" t="n">
+      <c r="AD19" s="23" t="n">
         <v>0.009989</v>
       </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7" t="n">
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ19" s="7" t="n">
+      <c r="AJ19" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7" t="n">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD19" s="6"/>
-      <c r="AME19" s="6"/>
-      <c r="AMF19" s="6"/>
+      <c r="AMD19" s="8"/>
+      <c r="AME19" s="8"/>
+      <c r="AMF19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="n">
+      <c r="I20" s="9"/>
+      <c r="J20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="18" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="7" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7" t="s">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7" t="s">
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD20" s="20" t="n">
+      <c r="AD20" s="23" t="n">
         <v>0.009989</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7" t="n">
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ20" s="7" t="n">
+      <c r="AJ20" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7" t="n">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD20" s="13"/>
-      <c r="AME20" s="13"/>
-      <c r="AMF20" s="13"/>
+      <c r="AMD20" s="16"/>
+      <c r="AME20" s="16"/>
+      <c r="AMF20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="n">
+      <c r="I21" s="9"/>
+      <c r="J21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="18" t="s">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="7" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7" t="s">
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD21" s="20" t="n">
+      <c r="AD21" s="23" t="n">
         <v>0.009989</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="n">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ21" s="7" t="n">
+      <c r="AJ21" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="n">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AMD21" s="6"/>
-      <c r="AME21" s="6"/>
-      <c r="AMF21" s="6"/>
+      <c r="AMD21" s="8"/>
+      <c r="AME21" s="8"/>
+      <c r="AMF21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7" t="n">
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" s="7" t="n">
+      <c r="AJ22" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="AK22" s="7" t="n">
+      <c r="AK22" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" s="7" t="n">
+      <c r="AL22" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AMD22" s="6"/>
-      <c r="AME22" s="6"/>
-      <c r="AMF22" s="6"/>
+      <c r="AMD22" s="8"/>
+      <c r="AME22" s="8"/>
+      <c r="AMF22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="n">
+      <c r="I23" s="9"/>
+      <c r="J23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="18" t="s">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7" t="s">
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7" t="s">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7" t="s">
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD23" s="20" t="n">
+      <c r="AD23" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7" t="n">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7" t="n">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="AMD23" s="6"/>
-      <c r="AME23" s="6"/>
-      <c r="AMF23" s="6"/>
+      <c r="AMD23" s="8"/>
+      <c r="AME23" s="8"/>
+      <c r="AMF23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7" t="n">
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="AK24" s="16" t="s">
+      <c r="AK24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AMD24" s="6"/>
-      <c r="AME24" s="6"/>
-      <c r="AMF24" s="6"/>
+      <c r="AMD24" s="8"/>
+      <c r="AME24" s="8"/>
+      <c r="AMF24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="n">
+      <c r="I25" s="9"/>
+      <c r="J25" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="18" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7" t="s">
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7" t="s">
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7" t="s">
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD25" s="20" t="n">
+      <c r="AD25" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="n">
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7" t="n">
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="AMD25" s="6"/>
-      <c r="AME25" s="6"/>
-      <c r="AMF25" s="6"/>
+      <c r="AMD25" s="8"/>
+      <c r="AME25" s="8"/>
+      <c r="AMF25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="n">
+      <c r="I26" s="9"/>
+      <c r="J26" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="18" t="s">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7" t="s">
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7" t="s">
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7" t="s">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7" t="s">
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD26" s="20" t="n">
+      <c r="AD26" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7" t="n">
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7" t="n">
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="AMD26" s="6"/>
-      <c r="AME26" s="6"/>
-      <c r="AMF26" s="6"/>
+      <c r="AMD26" s="8"/>
+      <c r="AME26" s="8"/>
+      <c r="AMF26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7" t="n">
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="AK27" s="16" t="s">
+      <c r="AK27" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AMD27" s="6"/>
-      <c r="AME27" s="6"/>
-      <c r="AMF27" s="6"/>
+      <c r="AMD27" s="8"/>
+      <c r="AME27" s="8"/>
+      <c r="AMF27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="n">
+      <c r="I28" s="9"/>
+      <c r="J28" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="18" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="7" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7" t="s">
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD28" s="20" t="n">
+      <c r="AD28" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7" t="n">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ28" s="7" t="n">
+      <c r="AJ28" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7" t="n">
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="AMD28" s="13"/>
-      <c r="AME28" s="13"/>
-      <c r="AMF28" s="13"/>
+      <c r="AMD28" s="16"/>
+      <c r="AME28" s="16"/>
+      <c r="AMF28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="n">
+      <c r="I29" s="9"/>
+      <c r="J29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="18" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="7" t="s">
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7" t="s">
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD29" s="20" t="n">
+      <c r="AD29" s="23" t="n">
         <v>0.010007</v>
       </c>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7" t="n">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ29" s="7" t="n">
+      <c r="AJ29" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7" t="n">
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="AMD29" s="6"/>
-      <c r="AME29" s="6"/>
-      <c r="AMF29" s="6"/>
+      <c r="AMD29" s="8"/>
+      <c r="AME29" s="8"/>
+      <c r="AMF29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7" t="n">
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ30" s="7" t="n">
+      <c r="AJ30" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AK30" s="16" t="s">
+      <c r="AK30" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AL30" s="7" t="n">
+      <c r="AL30" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="AMD30" s="6"/>
-      <c r="AME30" s="6"/>
-      <c r="AMF30" s="6"/>
+      <c r="AMD30" s="8"/>
+      <c r="AME30" s="8"/>
+      <c r="AMF30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="n">
+      <c r="I31" s="9"/>
+      <c r="J31" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="18" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7" t="s">
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7" t="s">
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7" t="s">
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD31" s="20" t="n">
+      <c r="AD31" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7" t="n">
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ31" s="7" t="n">
+      <c r="AJ31" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7" t="n">
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD31" s="6"/>
-      <c r="AME31" s="6"/>
-      <c r="AMF31" s="6"/>
+      <c r="AMD31" s="8"/>
+      <c r="AME31" s="8"/>
+      <c r="AMF31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="n">
+      <c r="I32" s="9"/>
+      <c r="J32" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="18" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7" t="s">
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7" t="s">
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7" t="s">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" s="20" t="n">
+      <c r="AD32" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="n">
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ32" s="7" t="n">
+      <c r="AJ32" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7" t="n">
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD32" s="6"/>
-      <c r="AME32" s="6"/>
-      <c r="AMF32" s="6"/>
+      <c r="AMD32" s="8"/>
+      <c r="AME32" s="8"/>
+      <c r="AMF32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7" t="n">
+      <c r="I33" s="9"/>
+      <c r="J33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="18" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="N33" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7" t="s">
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="s">
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7" t="s">
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" s="20" t="n">
+      <c r="AD33" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7" t="n">
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ33" s="7" t="n">
+      <c r="AJ33" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7" t="n">
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD33" s="6"/>
-      <c r="AME33" s="6"/>
-      <c r="AMF33" s="6"/>
+      <c r="AMD33" s="8"/>
+      <c r="AME33" s="8"/>
+      <c r="AMF33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="n">
+      <c r="I34" s="9"/>
+      <c r="J34" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="18" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7" t="s">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7" t="s">
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7" t="s">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD34" s="20" t="n">
+      <c r="AD34" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7" t="n">
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="n">
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD34" s="6"/>
-      <c r="AME34" s="6"/>
-      <c r="AMF34" s="6"/>
+      <c r="AMD34" s="8"/>
+      <c r="AME34" s="8"/>
+      <c r="AMF34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="n">
+      <c r="I35" s="9"/>
+      <c r="J35" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="18" t="s">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="N35" s="17" t="s">
+      <c r="N35" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7" t="s">
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7" t="s">
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7" t="s">
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" s="20" t="n">
+      <c r="AD35" s="23" t="n">
         <v>0.020999</v>
       </c>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="n">
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7" t="n">
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD35" s="6"/>
-      <c r="AME35" s="6"/>
-      <c r="AMF35" s="6"/>
+      <c r="AMD35" s="8"/>
+      <c r="AME35" s="8"/>
+      <c r="AMF35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7" t="n">
+      <c r="I36" s="9"/>
+      <c r="J36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="18" t="s">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="N36" s="17" t="s">
+      <c r="N36" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="s">
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7" t="s">
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7" t="s">
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" s="20" t="n">
+      <c r="AD36" s="23" t="n">
         <v>0.010007</v>
       </c>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7" t="n">
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7" t="n">
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD36" s="6"/>
-      <c r="AME36" s="6"/>
-      <c r="AMF36" s="6"/>
+      <c r="AMD36" s="8"/>
+      <c r="AME36" s="8"/>
+      <c r="AMF36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="n">
+      <c r="I37" s="9"/>
+      <c r="J37" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="18" t="s">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="7" t="s">
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7" t="s">
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7" t="s">
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7" t="s">
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD37" s="20" t="n">
+      <c r="AD37" s="23" t="n">
         <v>0.010007</v>
       </c>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7" t="n">
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ37" s="7" t="n">
+      <c r="AJ37" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7" t="n">
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD37" s="13"/>
-      <c r="AME37" s="13"/>
-      <c r="AMF37" s="13"/>
+      <c r="AMD37" s="16"/>
+      <c r="AME37" s="16"/>
+      <c r="AMF37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7" t="n">
+      <c r="I38" s="9"/>
+      <c r="J38" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="18" t="s">
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7" t="s">
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7" t="s">
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7" t="s">
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7" t="s">
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD38" s="20" t="n">
+      <c r="AD38" s="23" t="n">
         <v>0.009987</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7" t="n">
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ38" s="7" t="n">
+      <c r="AJ38" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7" t="n">
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AMD38" s="6"/>
-      <c r="AME38" s="6"/>
-      <c r="AMF38" s="6"/>
+      <c r="AMD38" s="8"/>
+      <c r="AME38" s="8"/>
+      <c r="AMF38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="n">
+      <c r="I39" s="9"/>
+      <c r="J39" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="7" t="s">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7" t="s">
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7" t="s">
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD39" s="20" t="n">
+      <c r="AD39" s="23" t="n">
         <v>0.15</v>
       </c>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7" t="n">
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ39" s="7" t="n">
+      <c r="AJ39" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AK39" s="16" t="s">
+      <c r="AK39" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AL39" s="23" t="n">
+      <c r="AL39" s="26" t="n">
         <v>303</v>
       </c>
-      <c r="AMD39" s="6"/>
-      <c r="AME39" s="6"/>
-      <c r="AMF39" s="6"/>
+      <c r="AMD39" s="8"/>
+      <c r="AME39" s="8"/>
+      <c r="AMF39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="n">
+      <c r="I40" s="9"/>
+      <c r="J40" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="7" t="s">
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7" t="s">
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7" t="s">
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7" t="n">
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ40" s="7" t="n">
+      <c r="AJ40" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="n">
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AMD40" s="6"/>
-      <c r="AME40" s="6"/>
-      <c r="AMF40" s="6"/>
+      <c r="AMD40" s="8"/>
+      <c r="AME40" s="8"/>
+      <c r="AMF40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="n">
+      <c r="I41" s="9"/>
+      <c r="J41" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="7" t="s">
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7" t="s">
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7" t="s">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7" t="n">
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ41" s="7" t="n">
+      <c r="AJ41" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AK41" s="16" t="s">
+      <c r="AK41" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AL41" s="7" t="n">
+      <c r="AL41" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AMD41" s="6"/>
-      <c r="AME41" s="6"/>
-      <c r="AMF41" s="6"/>
+      <c r="AMD41" s="8"/>
+      <c r="AME41" s="8"/>
+      <c r="AMF41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="11" t="n">
+      <c r="N42" s="14" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="7" t="s">
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7" t="s">
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7" t="s">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7" t="s">
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AI42" s="7" t="n">
+      <c r="AI42" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AJ42" s="7" t="n">
+      <c r="AJ42" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7" t="n">
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AMD42" s="6"/>
-      <c r="AME42" s="6"/>
-      <c r="AMF42" s="6"/>
+      <c r="AMD42" s="8"/>
+      <c r="AME42" s="8"/>
+      <c r="AMF42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="7" t="s">
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7" t="s">
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7" t="s">
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7" t="s">
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AI43" s="7" t="n">
+      <c r="AI43" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AJ43" s="7" t="n">
+      <c r="AJ43" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7" t="n">
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AMD43" s="6"/>
-      <c r="AME43" s="6"/>
-      <c r="AMF43" s="6"/>
+      <c r="AMD43" s="8"/>
+      <c r="AME43" s="8"/>
+      <c r="AMF43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="7" t="s">
+      <c r="I44" s="9"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7" t="s">
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AD44" s="20" t="n">
+      <c r="AD44" s="23" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7" t="s">
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AI44" s="7" t="n">
+      <c r="AI44" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ44" s="7" t="n">
+      <c r="AJ44" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AK44" s="16" t="s">
+      <c r="AK44" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AL44" s="15" t="n">
+      <c r="AL44" s="18" t="n">
         <v>311</v>
       </c>
-      <c r="AMD44" s="6"/>
-      <c r="AME44" s="6"/>
-      <c r="AMF44" s="6"/>
+      <c r="AMD44" s="8"/>
+      <c r="AME44" s="8"/>
+      <c r="AMF44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="n">
+      <c r="I45" s="9"/>
+      <c r="J45" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
+      <c r="L45" s="11"/>
+      <c r="M45" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7" t="s">
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7" t="s">
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7" t="s">
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AH45" s="7" t="s">
+      <c r="AH45" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AI45" s="7" t="n">
+      <c r="AI45" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ45" s="7" t="n">
+      <c r="AJ45" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="AK45" s="7"/>
-      <c r="AL45" s="7" t="n">
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AMD45" s="6"/>
-      <c r="AME45" s="6"/>
-      <c r="AMF45" s="6"/>
+      <c r="AMD45" s="8"/>
+      <c r="AME45" s="8"/>
+      <c r="AMF45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7" t="n">
+      <c r="I46" s="9"/>
+      <c r="J46" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
+      <c r="L46" s="11"/>
+      <c r="M46" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7" t="s">
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X46" s="7" t="s">
+      <c r="X46" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7" t="s">
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7" t="s">
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AH46" s="7" t="s">
+      <c r="AH46" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AI46" s="7" t="n">
+      <c r="AI46" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ46" s="7" t="n">
+      <c r="AJ46" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7" t="n">
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AMD46" s="6"/>
-      <c r="AME46" s="6"/>
-      <c r="AMF46" s="6"/>
+      <c r="AMD46" s="8"/>
+      <c r="AME46" s="8"/>
+      <c r="AMF46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7" t="n">
+      <c r="I47" s="9"/>
+      <c r="J47" s="11" t="n">
         <v>0.01</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7" t="s">
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7" t="s">
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7" t="s">
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7" t="n">
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ47" s="7" t="n">
+      <c r="AJ47" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7" t="n">
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AMD47" s="6"/>
-      <c r="AME47" s="6"/>
-      <c r="AMF47" s="6"/>
+      <c r="AMD47" s="8"/>
+      <c r="AME47" s="8"/>
+      <c r="AMF47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="7" t="n">
+      <c r="I48" s="20"/>
+      <c r="J48" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7" t="s">
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7" t="s">
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="X48" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
-      <c r="AC48" s="7" t="s">
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD48" s="20" t="n">
+      <c r="AD48" s="23" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7" t="s">
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH48" s="7" t="s">
+      <c r="AH48" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AI48" s="7" t="n">
+      <c r="AI48" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ48" s="7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK48" s="7"/>
-      <c r="AL48" s="24" t="n">
+      <c r="AJ48" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="28" t="n">
         <v>312</v>
       </c>
-      <c r="AMD48" s="6"/>
-      <c r="AME48" s="6"/>
-      <c r="AMF48" s="6"/>
+      <c r="AMD48" s="8"/>
+      <c r="AME48" s="8"/>
+      <c r="AMF48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="D49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7" t="n">
+      <c r="I49" s="20"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="L49" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="M49" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7" t="s">
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7" t="s">
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7" t="s">
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7" t="s">
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD49" s="20" t="n">
+      <c r="AD49" s="23" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7" t="s">
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH49" s="7" t="s">
+      <c r="AH49" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AI49" s="7" t="n">
+      <c r="AI49" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ49" s="7" t="n">
+      <c r="AJ49" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="24" t="n">
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="28" t="n">
         <v>312</v>
       </c>
-      <c r="AMD49" s="6"/>
-      <c r="AME49" s="6"/>
-      <c r="AMF49" s="6"/>
+      <c r="AMD49" s="8"/>
+      <c r="AME49" s="8"/>
+      <c r="AMF49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+      <c r="A50" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="7" t="s">
+      <c r="I50" s="20"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7" t="s">
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7" t="s">
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD50" s="23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH50" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI50" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK50" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AD50" s="20" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE50" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH50" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI50" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ50" s="7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK50" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL50" s="24" t="n">
+      <c r="AL50" s="28" t="n">
         <v>312</v>
       </c>
-      <c r="AMD50" s="6"/>
-      <c r="AME50" s="6"/>
-      <c r="AMF50" s="6"/>
+      <c r="AMD50" s="8"/>
+      <c r="AME50" s="8"/>
+      <c r="AMF50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="n">
+      <c r="A51" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
+      <c r="D51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="20"/>
+      <c r="J51" s="11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="O51" s="14"/>
+      <c r="P51" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R51" s="26" t="s">
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="X51" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="X51" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7" t="s">
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH51" s="7" t="s">
+      <c r="AH51" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AI51" s="7" t="n">
+      <c r="AI51" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ51" s="7" t="n">
+      <c r="AJ51" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="AK51" s="7"/>
-      <c r="AL51" s="7" t="n">
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+      <c r="A52" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
+      <c r="D52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH52" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI52" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ52" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK52" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH52" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI52" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ52" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK52" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL52" s="7" t="n">
+      <c r="AL52" s="9" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+      <c r="A53" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
+      <c r="D53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="H53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7" t="n">
+      <c r="N53" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R53" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="X53" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH53" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI53" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R53" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="X53" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH53" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI53" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ53" s="7" t="n">
+      <c r="AJ53" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7" t="n">
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+      <c r="A54" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="H54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7" t="n">
+      <c r="N54" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R54" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="X54" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI54" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="N54" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R54" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="X54" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD54" s="9"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH54" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AI54" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ54" s="7" t="n">
+      <c r="AJ54" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="AK54" s="7"/>
-      <c r="AL54" s="7" t="n">
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+      <c r="A55" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
+      <c r="D55" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="H55" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="7" t="n">
+      <c r="I55" s="20"/>
+      <c r="J55" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7" t="s">
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="7" t="s">
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R55" s="26" t="s">
+      <c r="R55" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7" t="s">
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X55" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7" t="s">
+      <c r="X55" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="7" t="s">
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH55" s="7" t="s">
+      <c r="AH55" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AI55" s="7" t="n">
+      <c r="AI55" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AJ55" s="7" t="n">
+      <c r="AJ55" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7" t="n">
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
+      <c r="A56" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="11" t="s">
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7" t="s">
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7" t="s">
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7" t="s">
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AD56" s="20" t="n">
+      <c r="AD56" s="23" t="n">
         <v>0.04</v>
       </c>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="7" t="s">
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AH56" s="7" t="s">
+      <c r="AH56" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AI56" s="7" t="n">
+      <c r="AI56" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AJ56" s="7" t="n">
+      <c r="AJ56" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="AK56" s="7"/>
-      <c r="AL56" s="24" t="n">
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="28" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="n">
+      <c r="A57" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="F57" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="G57" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="H57" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="I57" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7" t="s">
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK57" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK57" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL57" s="7"/>
+      <c r="AL57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58" s="29" t="s">
+      <c r="D58" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="G58" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="H58" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="I58" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7" t="s">
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7" t="s">
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="X58" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="X58" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="7" t="n">
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="29" t="s">
+      <c r="D59" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="G59" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="H59" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="I59" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7" t="s">
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="7"/>
-      <c r="AJ59" s="7" t="n">
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
+      <c r="A60" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" s="29" t="s">
+      <c r="D60" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F60" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="G60" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="H60" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7" t="s">
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7" t="n">
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL60"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$60</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="273">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -967,6 +968,15 @@
 Energy Rack
 Energy Other
 Promo Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,6 +1259,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1330,49 +1344,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF60"/>
+  <dimension ref="1:61"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AE50" activeCellId="0" sqref="AE50:AF50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="92.2307692307692"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="93.085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="83.3400809716599"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6087,8 +6101,69 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="9"/>
     </row>
+    <row r="61" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9" t="n">
+        <v>313</v>
+      </c>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AMJ61" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL60"/>
+  <autoFilter ref="A1:AL61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="275">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -227,15 +228,18 @@
 14</t>
   </si>
   <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000054227, 5449000228970</t>
   </si>
   <si>
@@ -272,19 +276,25 @@
     <t xml:space="preserve">5449000008046</t>
   </si>
   <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fanta Orange - 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000006271, 5449000228963</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprite - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000050939, 5449000228956</t>
@@ -980,7 +990,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,38 +999,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1067,13 +1047,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1140,6 +1120,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1152,14 +1136,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1168,60 +1144,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1237,66 +1169,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1312,54 +1184,54 @@
   <dimension ref="A1:AMF61"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.6882591093117"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.6356275303644"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="44.5910931174089"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.2226720647773"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.5748987854251"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.91093117408907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.09716599190283"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="45.6599190283401"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="22.7651821862348"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="79.9392712550607"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1949,7 +1821,7 @@
       <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="19" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -1961,38 +1833,38 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>63</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD9" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="10" t="n">
         <v>0.021437</v>
       </c>
       <c r="AE9" s="7"/>
@@ -2029,11 +1901,11 @@
       <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>70</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>62</v>
@@ -2044,38 +1916,38 @@
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>71</v>
+      <c r="M10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD10" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE10" s="7"/>
@@ -2112,11 +1984,11 @@
       <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>73</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>62</v>
@@ -2127,38 +1999,38 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>74</v>
+      <c r="M11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD11" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE11" s="7"/>
@@ -2196,10 +2068,10 @@
         <v>55</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="18" t="s">
         <v>76</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>62</v>
@@ -2210,38 +2082,38 @@
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>77</v>
+      <c r="M12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD12" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD12" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE12" s="7"/>
@@ -2279,10 +2151,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>62</v>
@@ -2293,38 +2165,38 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>80</v>
+      <c r="M13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD13" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE13" s="7"/>
@@ -2361,11 +2233,11 @@
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>82</v>
+      <c r="F14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>62</v>
@@ -2376,38 +2248,38 @@
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>83</v>
+      <c r="M14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD14" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE14" s="7"/>
@@ -2444,11 +2316,11 @@
       <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>85</v>
+      <c r="F15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>62</v>
@@ -2459,38 +2331,38 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>86</v>
+      <c r="M15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD15" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD15" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE15" s="7"/>
@@ -2527,11 +2399,11 @@
       <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>88</v>
+      <c r="F16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>62</v>
@@ -2540,38 +2412,38 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>89</v>
+      <c r="M16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD16" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD16" s="10" t="n">
         <v>0.021371</v>
       </c>
       <c r="AE16" s="7"/>
@@ -2608,11 +2480,11 @@
       <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>92</v>
+      <c r="F17" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>62</v>
@@ -2623,38 +2495,38 @@
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>93</v>
+      <c r="M17" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD17" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD17" s="10" t="n">
         <v>0.010011</v>
       </c>
       <c r="AE17" s="7"/>
@@ -2691,11 +2563,11 @@
       <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>95</v>
+      <c r="F18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>62</v>
@@ -2706,38 +2578,38 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>96</v>
+      <c r="M18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD18" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD18" s="10" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE18" s="7"/>
@@ -2774,11 +2646,11 @@
       <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>98</v>
+      <c r="F19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>62</v>
@@ -2789,38 +2661,38 @@
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>99</v>
+      <c r="M19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD19" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="10" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE19" s="7"/>
@@ -2857,11 +2729,11 @@
       <c r="E20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>101</v>
+      <c r="F20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>62</v>
@@ -2872,38 +2744,38 @@
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>102</v>
+      <c r="M20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD20" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="10" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE20" s="7"/>
@@ -2940,11 +2812,11 @@
       <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>104</v>
+      <c r="F21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>62</v>
@@ -2955,38 +2827,38 @@
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>105</v>
+      <c r="M21" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD21" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD21" s="10" t="n">
         <v>0.009989</v>
       </c>
       <c r="AE21" s="7"/>
@@ -3021,13 +2893,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>58</v>
@@ -3090,13 +2962,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>110</v>
+      <c r="F23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>62</v>
@@ -3107,38 +2979,38 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="19" t="s">
-        <v>109</v>
+      <c r="M23" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD23" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE23" s="7"/>
@@ -3173,13 +3045,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>58</v>
@@ -3219,7 +3091,7 @@
         <v>17</v>
       </c>
       <c r="AK24" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL24" s="7" t="n">
         <v>300</v>
@@ -3242,13 +3114,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>62</v>
@@ -3259,38 +3131,38 @@
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="19" t="s">
-        <v>115</v>
+      <c r="M25" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD25" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE25" s="7"/>
@@ -3325,13 +3197,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>62</v>
@@ -3342,38 +3214,38 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="19" t="s">
-        <v>118</v>
+      <c r="M26" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD26" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD26" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE26" s="7"/>
@@ -3408,13 +3280,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>58</v>
@@ -3430,7 +3302,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="18"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
@@ -3454,7 +3326,7 @@
         <v>20</v>
       </c>
       <c r="AK27" s="17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AL27" s="7" t="n">
         <v>300</v>
@@ -3477,13 +3349,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>62</v>
@@ -3494,38 +3366,38 @@
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>127</v>
+      <c r="M28" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD28" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD28" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE28" s="7"/>
@@ -3560,13 +3432,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>62</v>
@@ -3577,38 +3449,38 @@
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>130</v>
+      <c r="M29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD29" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD29" s="10" t="n">
         <v>0.010007</v>
       </c>
       <c r="AE29" s="7"/>
@@ -3643,13 +3515,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>58</v>
@@ -3689,7 +3561,7 @@
         <v>23</v>
       </c>
       <c r="AK30" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AL30" s="7" t="n">
         <v>300</v>
@@ -3712,13 +3584,13 @@
         <v>40</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>62</v>
@@ -3729,38 +3601,38 @@
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>136</v>
+      <c r="M31" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD31" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD31" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE31" s="7"/>
@@ -3795,13 +3667,13 @@
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>62</v>
@@ -3812,38 +3684,38 @@
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>139</v>
+      <c r="M32" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD32" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE32" s="7"/>
@@ -3878,13 +3750,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>62</v>
@@ -3895,38 +3767,38 @@
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>142</v>
+      <c r="M33" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD33" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD33" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE33" s="7"/>
@@ -3961,13 +3833,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>62</v>
@@ -3978,38 +3850,38 @@
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>145</v>
+      <c r="M34" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD34" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD34" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE34" s="7"/>
@@ -4044,13 +3916,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>62</v>
@@ -4061,38 +3933,38 @@
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>148</v>
+      <c r="M35" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD35" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD35" s="10" t="n">
         <v>0.020999</v>
       </c>
       <c r="AE35" s="7"/>
@@ -4127,13 +3999,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>62</v>
@@ -4144,38 +4016,38 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>151</v>
+      <c r="M36" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD36" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="10" t="n">
         <v>0.010007</v>
       </c>
       <c r="AE36" s="7"/>
@@ -4210,13 +4082,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>62</v>
@@ -4227,41 +4099,41 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>154</v>
+      <c r="M37" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD37" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD37" s="10" t="n">
         <v>0.010007</v>
       </c>
-      <c r="AE37" s="18"/>
+      <c r="AE37" s="19"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
@@ -4293,13 +4165,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>62</v>
@@ -4310,38 +4182,38 @@
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>157</v>
+      <c r="M38" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD38" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD38" s="10" t="n">
         <v>0.009987</v>
       </c>
       <c r="AE38" s="7"/>
@@ -4376,7 +4248,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>45</v>
@@ -4385,7 +4257,7 @@
         <v>46</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="9" t="n">
@@ -4398,15 +4270,15 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="24"/>
+      <c r="U39" s="23"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -4414,9 +4286,9 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD39" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD39" s="10" t="n">
         <v>0.15</v>
       </c>
       <c r="AE39" s="7"/>
@@ -4430,9 +4302,9 @@
         <v>32</v>
       </c>
       <c r="AK39" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL39" s="25" t="n">
+        <v>164</v>
+      </c>
+      <c r="AL39" s="19" t="n">
         <v>303</v>
       </c>
       <c r="AMD39" s="6"/>
@@ -4453,13 +4325,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>62</v>
@@ -4471,25 +4343,25 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="24"/>
+      <c r="U40" s="23"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -4497,7 +4369,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" s="7"/>
@@ -4532,16 +4404,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="9" t="n">
@@ -4554,15 +4426,15 @@
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="24"/>
+      <c r="U41" s="23"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -4570,7 +4442,7 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD41" s="10"/>
       <c r="AE41" s="7"/>
@@ -4584,7 +4456,7 @@
         <v>34</v>
       </c>
       <c r="AK41" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AL41" s="7" t="n">
         <v>32</v>
@@ -4607,23 +4479,23 @@
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N42" s="12" t="n">
         <v>4607042434877</v>
@@ -4631,17 +4503,17 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="24"/>
+      <c r="U42" s="23"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -4649,14 +4521,14 @@
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI42" s="7" t="n">
         <v>4</v>
@@ -4686,41 +4558,41 @@
         <v>40</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="24"/>
+      <c r="U43" s="23"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -4728,14 +4600,14 @@
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD43" s="10"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AI43" s="7" t="n">
         <v>4</v>
@@ -4765,19 +4637,19 @@
         <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I44" s="7"/>
-      <c r="J44" s="26"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="7"/>
@@ -4785,7 +4657,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -4799,16 +4671,16 @@
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD44" s="21" t="n">
+        <v>186</v>
+      </c>
+      <c r="AD44" s="10" t="n">
         <v>0.24</v>
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AI44" s="7" t="n">
         <v>2</v>
@@ -4817,7 +4689,7 @@
         <v>36</v>
       </c>
       <c r="AK44" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AL44" s="16" t="n">
         <v>311</v>
@@ -4840,16 +4712,16 @@
         <v>40</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="9" t="n">
@@ -4860,42 +4732,42 @@
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AH45" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AI45" s="7" t="n">
         <v>3</v>
@@ -4925,16 +4797,16 @@
         <v>40</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="9" t="n">
@@ -4945,42 +4817,42 @@
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD46" s="10"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AH46" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AI46" s="7" t="n">
         <v>3</v>
@@ -5010,16 +4882,16 @@
         <v>40</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="9" t="n">
@@ -5028,23 +4900,23 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -5052,7 +4924,7 @@
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD47" s="10"/>
       <c r="AE47" s="7"/>
@@ -5087,18 +4959,18 @@
         <v>40</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="I48" s="19"/>
       <c r="J48" s="9" t="n">
         <v>1</v>
       </c>
@@ -5106,41 +4978,41 @@
       <c r="L48" s="9"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD48" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD48" s="10" t="n">
         <v>0.04</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH48" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI48" s="7" t="n">
         <v>2</v>
@@ -5149,7 +5021,7 @@
         <v>40</v>
       </c>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="27" t="n">
+      <c r="AL48" s="25" t="n">
         <v>312</v>
       </c>
       <c r="AMD48" s="6"/>
@@ -5170,18 +5042,18 @@
         <v>40</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="19"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="n">
         <v>1</v>
@@ -5190,44 +5062,44 @@
         <v>15</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X49" s="7"/>
       <c r="Y49" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD49" s="21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD49" s="10" t="n">
         <v>0.04</v>
       </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH49" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI49" s="7" t="n">
         <v>2</v>
@@ -5236,7 +5108,7 @@
         <v>41</v>
       </c>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="27" t="n">
+      <c r="AL49" s="25" t="n">
         <v>312</v>
       </c>
       <c r="AMD49" s="6"/>
@@ -5257,18 +5129,18 @@
         <v>40</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="18"/>
+      <c r="I50" s="19"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -5277,7 +5149,7 @@
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -5285,7 +5157,7 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -5293,18 +5165,18 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD50" s="21" t="n">
+        <v>186</v>
+      </c>
+      <c r="AD50" s="10" t="n">
         <v>0.04</v>
       </c>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH50" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI50" s="7" t="n">
         <v>2</v>
@@ -5313,9 +5185,9 @@
         <v>42</v>
       </c>
       <c r="AK50" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL50" s="27" t="n">
+        <v>219</v>
+      </c>
+      <c r="AL50" s="25" t="n">
         <v>312</v>
       </c>
       <c r="AMD50" s="6"/>
@@ -5337,61 +5209,61 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="I51" s="19"/>
       <c r="J51" s="9" t="n">
         <v>0.4</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R51" s="29" t="s">
-        <v>222</v>
+        <v>65</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD51" s="10"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH51" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI51" s="7" t="n">
         <v>3</v>
@@ -5419,15 +5291,15 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I52" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I52" s="19"/>
       <c r="J52" s="9" t="n">
         <v>2</v>
       </c>
@@ -5438,7 +5310,7 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -5446,7 +5318,7 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
@@ -5454,16 +5326,16 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD52" s="10"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH52" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI52" s="7" t="n">
         <v>3</v>
@@ -5472,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="AK52" s="17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AL52" s="7" t="n">
         <v>42</v>
@@ -5493,10 +5365,10 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>62</v>
@@ -5506,50 +5378,50 @@
         <v>4</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="N53" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32" t="s">
-        <v>230</v>
+      <c r="L53" s="26"/>
+      <c r="M53" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>222</v>
+        <v>65</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X53" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AC53" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD53" s="10"/>
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH53" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI53" s="7" t="n">
         <v>4</v>
@@ -5577,10 +5449,10 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>62</v>
@@ -5591,49 +5463,49 @@
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="N54" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32" t="s">
-        <v>221</v>
+      <c r="M54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R54" s="29" t="s">
-        <v>222</v>
+        <v>65</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X54" s="17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD54" s="10"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH54" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI54" s="7" t="n">
         <v>4</v>
@@ -5661,59 +5533,59 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="I55" s="18"/>
+        <v>241</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="19"/>
       <c r="J55" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R55" s="29" t="s">
-        <v>191</v>
+        <v>65</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X55" s="17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD55" s="10"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH55" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI55" s="7" t="n">
         <v>3</v>
@@ -5740,16 +5612,16 @@
         <v>40</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="9"/>
@@ -5757,20 +5629,20 @@
       <c r="L56" s="9"/>
       <c r="M56" s="7"/>
       <c r="N56" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
@@ -5778,18 +5650,18 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD56" s="21" t="n">
+        <v>186</v>
+      </c>
+      <c r="AD56" s="10" t="n">
         <v>0.04</v>
       </c>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH56" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AI56" s="7" t="n">
         <v>2</v>
@@ -5798,273 +5670,273 @@
         <v>49</v>
       </c>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="27" t="n">
+      <c r="AL56" s="25" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33" t="n">
+      <c r="A57" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="34" t="s">
+      <c r="B57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="E57" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="F57" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33" t="s">
+      <c r="G57" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33" t="n">
+      <c r="H57" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="AK57" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL57" s="33"/>
+      <c r="AK57" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="n">
+      <c r="A58" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="34" t="s">
+      <c r="B58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="X58" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33" t="n">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="X58" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="AK58" s="33"/>
-      <c r="AL58" s="33"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="n">
+      <c r="A59" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" s="34" t="s">
+      <c r="B59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
       <c r="X59" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33" t="n">
+        <v>267</v>
+      </c>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="AK59" s="33"/>
-      <c r="AL59" s="33"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33" t="n">
+      <c r="A60" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="34" t="s">
+      <c r="B60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F60" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="34" t="s">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="H60" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33" t="n">
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="AK60" s="33"/>
-      <c r="AL60" s="33"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
@@ -6077,31 +5949,31 @@
         <v>39</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>270</v>
+        <v>246</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="39"/>
+      <c r="N61" s="27"/>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1228,47 +1229,47 @@
   </sheetPr>
   <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="7.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="82.1619433198381"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.7125506072875"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AL$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -183,9 +184,10 @@
 8
 9
 10
+12
 11
-12
-603</t>
+603
+</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
@@ -384,8 +386,9 @@
 26
 27
 28
+31
 30
-31</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple - 1L</t>
@@ -469,7 +472,7 @@
     <t xml:space="preserve">Juice Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">33 
+    <t xml:space="preserve">33
 34</t>
   </si>
   <si>
@@ -883,7 +886,7 @@
     <numFmt numFmtId="171" formatCode="@"/>
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -923,6 +926,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1001,7 +1010,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1066,7 +1075,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,6 +1109,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1229,47 +1242,47 @@
   </sheetPr>
   <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AJ51" activeCellId="0" sqref="AJ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="82.8016194331984"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="2" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.7125506072875"/>
@@ -2522,7 +2535,7 @@
       <c r="AJ16" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="AK16" s="16" t="s">
+      <c r="AK16" s="25" t="s">
         <v>93</v>
       </c>
       <c r="AL16" s="9" t="n">
@@ -2643,7 +2656,7 @@
       <c r="M18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="26" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="20"/>
@@ -2671,7 +2684,7 @@
       <c r="AC18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="26" t="n">
+      <c r="AD18" s="27" t="n">
         <v>0.0179</v>
       </c>
       <c r="AE18" s="20"/>
@@ -2748,7 +2761,7 @@
       <c r="AJ19" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="AK19" s="16" t="s">
+      <c r="AK19" s="25" t="s">
         <v>102</v>
       </c>
       <c r="AL19" s="9" t="n">
@@ -2789,7 +2802,7 @@
       <c r="M20" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="28" t="s">
         <v>106</v>
       </c>
       <c r="O20" s="14"/>
@@ -2869,7 +2882,7 @@
       <c r="M21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="28" t="s">
         <v>109</v>
       </c>
       <c r="O21" s="14"/>
@@ -3555,10 +3568,10 @@
         <v>40</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="29" t="s">
         <v>134</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -3653,7 +3666,7 @@
       <c r="AI31" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ31" s="29" t="n">
+      <c r="AJ31" s="30" t="n">
         <v>303</v>
       </c>
       <c r="AK31" s="14" t="n">
@@ -3704,7 +3717,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
-      <c r="U32" s="30"/>
+      <c r="U32" s="31"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9" t="s">
         <v>139</v>
@@ -3730,7 +3743,7 @@
       <c r="AJ32" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="AK32" s="16" t="s">
+      <c r="AK32" s="25" t="s">
         <v>140</v>
       </c>
       <c r="AL32" s="17" t="n">
@@ -3784,7 +3797,7 @@
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
-      <c r="U33" s="30"/>
+      <c r="U33" s="31"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9" t="s">
         <v>139</v>
@@ -3854,7 +3867,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-      <c r="U34" s="30"/>
+      <c r="U34" s="31"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9" t="s">
         <v>139</v>
@@ -3878,7 +3891,7 @@
       <c r="AJ34" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AK34" s="16" t="s">
+      <c r="AK34" s="25" t="s">
         <v>149</v>
       </c>
       <c r="AL34" s="9" t="n">
@@ -3930,7 +3943,7 @@
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="30"/>
+      <c r="U35" s="31"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9" t="s">
         <v>139</v>
@@ -4006,7 +4019,7 @@
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="30"/>
+      <c r="U36" s="31"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9" t="s">
         <v>139</v>
@@ -4089,7 +4102,7 @@
       <c r="AI37" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ37" s="29" t="n">
+      <c r="AJ37" s="30" t="n">
         <v>310</v>
       </c>
       <c r="AK37" s="15" t="s">
@@ -4149,7 +4162,7 @@
       <c r="AI38" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ38" s="29" t="n">
+      <c r="AJ38" s="30" t="n">
         <v>311</v>
       </c>
       <c r="AK38" s="9" t="n">
@@ -4185,7 +4198,7 @@
         <v>165</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="9"/>
@@ -4224,10 +4237,10 @@
       <c r="AJ39" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AK39" s="16" t="s">
+      <c r="AK39" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="AL39" s="29" t="n">
+      <c r="AL39" s="30" t="n">
         <v>311</v>
       </c>
     </row>
@@ -4439,7 +4452,7 @@
       <c r="AI42" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="AJ42" s="29" t="n">
+      <c r="AJ42" s="30" t="n">
         <v>312</v>
       </c>
       <c r="AK42" s="15" t="s">
@@ -4525,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="AK43" s="9"/>
-      <c r="AL43" s="32" t="n">
+      <c r="AL43" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4609,7 +4622,7 @@
         <v>41</v>
       </c>
       <c r="AK44" s="9"/>
-      <c r="AL44" s="32" t="n">
+      <c r="AL44" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4682,10 +4695,10 @@
       <c r="AJ45" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AK45" s="16" t="s">
+      <c r="AK45" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="AL45" s="32" t="n">
+      <c r="AL45" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -4838,7 +4851,7 @@
       <c r="AJ47" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AK47" s="16" t="s">
+      <c r="AK47" s="25" t="s">
         <v>211</v>
       </c>
       <c r="AL47" s="9" t="n">
@@ -4873,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="K48" s="11"/>
-      <c r="L48" s="33"/>
+      <c r="L48" s="34"/>
       <c r="M48" s="9" t="s">
         <v>214</v>
       </c>
@@ -4897,7 +4910,7 @@
       <c r="W48" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X48" s="34" t="s">
+      <c r="X48" s="35" t="s">
         <v>216</v>
       </c>
       <c r="Y48" s="9"/>
@@ -4981,7 +4994,7 @@
       <c r="W49" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X49" s="34" t="s">
+      <c r="X49" s="35" t="s">
         <v>216</v>
       </c>
       <c r="Y49" s="9"/>
@@ -5063,7 +5076,7 @@
       <c r="W50" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X50" s="34" t="s">
+      <c r="X50" s="35" t="s">
         <v>216</v>
       </c>
       <c r="Y50" s="9"/>
@@ -5165,7 +5178,7 @@
         <v>49</v>
       </c>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="32" t="n">
+      <c r="AL51" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -5182,13 +5195,13 @@
       <c r="D52" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="33" t="s">
         <v>230</v>
       </c>
       <c r="H52" s="9" t="s">
@@ -5228,7 +5241,7 @@
       <c r="AJ52" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="AK52" s="16" t="s">
+      <c r="AK52" s="25" t="s">
         <v>234</v>
       </c>
       <c r="AL52" s="9"/>
@@ -5246,13 +5259,13 @@
       <c r="D53" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="33" t="s">
         <v>237</v>
       </c>
       <c r="H53" s="9" t="s">
@@ -5281,7 +5294,7 @@
       <c r="W53" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X53" s="16" t="s">
+      <c r="X53" s="25" t="s">
         <v>241</v>
       </c>
       <c r="Y53" s="9"/>
@@ -5314,13 +5327,13 @@
       <c r="D54" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="33" t="s">
         <v>244</v>
       </c>
       <c r="H54" s="9" t="s">
@@ -5347,7 +5360,7 @@
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
-      <c r="X54" s="16" t="s">
+      <c r="X54" s="25" t="s">
         <v>248</v>
       </c>
       <c r="Y54" s="9"/>
@@ -5380,13 +5393,13 @@
       <c r="D55" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="33" t="s">
         <v>251</v>
       </c>
       <c r="H55" s="9" t="s">
@@ -5413,7 +5426,7 @@
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
-      <c r="X55" s="16" t="s">
+      <c r="X55" s="25" t="s">
         <v>248</v>
       </c>
       <c r="Y55" s="9"/>
@@ -5446,11 +5459,11 @@
       <c r="D56" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32" t="s">
+      <c r="E56" s="33"/>
+      <c r="F56" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="32" t="s">
+      <c r="G56" s="33" t="s">
         <v>254</v>
       </c>
       <c r="H56" s="9" t="s">
@@ -5463,7 +5476,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="35"/>
+      <c r="N56" s="36"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98155021-E399-4AB8-946E-D7CA6AB68B60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF3014-9E23-4102-9329-2485476777FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>Sorting</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Activation, Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -834,6 +831,12 @@
   </si>
   <si>
     <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1297,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,11 +1623,11 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1659,10 +1662,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>51</v>
@@ -1674,10 +1677,10 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="3" t="s">
@@ -1692,11 +1695,11 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1731,10 +1734,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>51</v>
@@ -1746,10 +1749,10 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="3" t="s">
@@ -1764,11 +1767,11 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1803,10 +1806,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
@@ -1818,10 +1821,10 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="3" t="s">
@@ -1836,11 +1839,11 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1875,10 +1878,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>51</v>
@@ -1890,10 +1893,10 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="3" t="s">
@@ -1908,11 +1911,11 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD8" s="6">
         <v>2.8000000000000001E-2</v>
@@ -1947,10 +1950,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>51</v>
@@ -1962,10 +1965,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="3" t="s">
@@ -1980,11 +1983,11 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2019,10 +2022,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>51</v>
@@ -2034,7 +2037,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="3">
         <v>5449000064110</v>
@@ -2052,11 +2055,11 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2091,10 +2094,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>51</v>
@@ -2106,10 +2109,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="3" t="s">
@@ -2124,11 +2127,11 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD11" s="6">
         <v>2.8000000000000001E-2</v>
@@ -2163,10 +2166,10 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>51</v>
@@ -2178,10 +2181,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="3" t="s">
@@ -2196,11 +2199,11 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2235,10 +2238,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>51</v>
@@ -2250,7 +2253,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="3">
         <v>42099697</v>
@@ -2268,11 +2271,11 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2304,13 +2307,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -2362,13 +2365,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>51</v>
@@ -2380,10 +2383,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="3" t="s">
@@ -2398,11 +2401,11 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2434,13 +2437,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>47</v>
@@ -2472,7 +2475,7 @@
         <v>17</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL16" s="3">
         <v>300</v>
@@ -2492,13 +2495,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>51</v>
@@ -2510,10 +2513,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="3" t="s">
@@ -2528,11 +2531,11 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2564,13 +2567,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>51</v>
@@ -2582,7 +2585,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N18" s="3">
         <v>5060335632906</v>
@@ -2600,11 +2603,11 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2636,13 +2639,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
@@ -2674,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL19" s="3">
         <v>300</v>
@@ -2694,13 +2697,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>51</v>
@@ -2712,10 +2715,10 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="3" t="s">
@@ -2730,11 +2733,11 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="6">
         <v>1.7899999999999999E-2</v>
@@ -2766,13 +2769,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>51</v>
@@ -2784,10 +2787,10 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="3" t="s">
@@ -2802,11 +2805,11 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="6">
         <v>1.2999999999999999E-2</v>
@@ -2838,13 +2841,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
@@ -2876,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL22" s="3">
         <v>300</v>
@@ -2896,13 +2899,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>51</v>
@@ -2914,10 +2917,10 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="3" t="s">
@@ -2932,11 +2935,11 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD23" s="6">
         <v>1.788E-2</v>
@@ -2968,13 +2971,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>51</v>
@@ -2986,10 +2989,10 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="3" t="s">
@@ -3004,11 +3007,11 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="6">
         <v>1.788E-2</v>
@@ -3040,13 +3043,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>51</v>
@@ -3058,10 +3061,10 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="3" t="s">
@@ -3076,11 +3079,11 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="6">
         <v>1.788E-2</v>
@@ -3112,13 +3115,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>51</v>
@@ -3130,10 +3133,10 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="3" t="s">
@@ -3148,11 +3151,11 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="6">
         <v>1.788E-2</v>
@@ -3184,13 +3187,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>51</v>
@@ -3202,10 +3205,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="3" t="s">
@@ -3220,11 +3223,11 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="6">
         <v>1.788E-2</v>
@@ -3256,13 +3259,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>51</v>
@@ -3274,10 +3277,10 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="3" t="s">
@@ -3292,11 +3295,11 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD28" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3328,13 +3331,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>51</v>
@@ -3346,10 +3349,10 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="3" t="s">
@@ -3364,11 +3367,11 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="6">
         <v>1.2999999999999999E-2</v>
@@ -3401,10 +3404,10 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>40</v>
@@ -3452,10 +3455,10 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>40</v>
@@ -3504,16 +3507,16 @@
         <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="H32" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3">
@@ -3529,13 +3532,13 @@
       </c>
       <c r="R32" s="4"/>
       <c r="W32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD32" s="6">
         <v>0.15</v>
@@ -3549,7 +3552,7 @@
         <v>32</v>
       </c>
       <c r="AK32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL32" s="3">
         <v>303</v>
@@ -3569,13 +3572,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>51</v>
@@ -3587,26 +3590,26 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AG33" s="4"/>
@@ -3636,16 +3639,16 @@
         <v>40</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3">
@@ -3661,13 +3664,13 @@
       </c>
       <c r="R34" s="4"/>
       <c r="W34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="4"/>
       <c r="AG34" s="4"/>
@@ -3679,7 +3682,7 @@
         <v>34</v>
       </c>
       <c r="AK34" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL34" s="3">
         <v>32</v>
@@ -3699,23 +3702,23 @@
         <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="3">
         <v>4607042434877</v>
@@ -3728,18 +3731,18 @@
         <v>55</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI35" s="3">
         <v>4</v>
@@ -3766,23 +3769,23 @@
         <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N36" s="3">
         <v>4607042434891</v>
@@ -3795,18 +3798,18 @@
         <v>55</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD36" s="4"/>
       <c r="AG36" s="4"/>
       <c r="AH36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI36" s="3">
         <v>4</v>
@@ -3834,10 +3837,10 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>40</v>
@@ -3866,7 +3869,7 @@
         <v>310</v>
       </c>
       <c r="AK37" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL37" s="4"/>
     </row>
@@ -3885,10 +3888,10 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>40</v>
@@ -3937,16 +3940,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3956,7 +3959,7 @@
       <c r="N39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R39" s="4"/>
       <c r="W39" s="4"/>
@@ -3964,14 +3967,14 @@
       <c r="Y39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD39" s="6">
         <v>0.24</v>
       </c>
       <c r="AG39" s="4"/>
       <c r="AH39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI39" s="3">
         <v>2</v>
@@ -3980,7 +3983,7 @@
         <v>36</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL39" s="3">
         <v>311</v>
@@ -4000,16 +4003,16 @@
         <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3">
@@ -4020,30 +4023,30 @@
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W40" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD40" s="4"/>
       <c r="AG40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH40" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="AH40" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="AI40" s="3">
         <v>3</v>
@@ -4070,16 +4073,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="3">
@@ -4088,24 +4091,24 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD41" s="4"/>
       <c r="AG41" s="4"/>
@@ -4136,10 +4139,10 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>40</v>
@@ -4168,7 +4171,7 @@
         <v>312</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL42" s="3">
         <v>310</v>
@@ -4188,16 +4191,16 @@
         <v>40</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="3">
@@ -4207,32 +4210,32 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="X43" s="3" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD43" s="6">
         <v>0.04</v>
       </c>
       <c r="AG43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH43" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI43" s="3">
         <v>2</v>
@@ -4259,16 +4262,16 @@
         <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4279,32 +4282,32 @@
         <v>15</v>
       </c>
       <c r="M44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD44" s="6">
         <v>0.04</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI44" s="3">
         <v>2</v>
@@ -4331,13 +4334,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>47</v>
@@ -4348,25 +4351,25 @@
       <c r="N45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R45" s="4"/>
       <c r="W45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD45" s="6">
         <v>0.04</v>
       </c>
       <c r="AG45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI45" s="3">
         <v>2</v>
@@ -4375,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="AK45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL45" s="3">
         <v>312</v>
@@ -4396,49 +4399,49 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="3">
         <v>0.4</v>
       </c>
       <c r="M46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="P46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="4"/>
       <c r="AG46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH46" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI46" s="3">
         <v>3</v>
@@ -4466,13 +4469,13 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="3">
@@ -4482,23 +4485,23 @@
       <c r="N47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R47" s="4"/>
       <c r="W47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AG47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI47" s="3">
         <v>3</v>
@@ -4507,7 +4510,7 @@
         <v>45</v>
       </c>
       <c r="AK47" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL47" s="3">
         <v>42</v>
@@ -4528,10 +4531,10 @@
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>51</v>
@@ -4541,38 +4544,38 @@
         <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="P48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD48" s="4"/>
       <c r="AG48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI48" s="3">
         <v>4</v>
@@ -4600,10 +4603,10 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>51</v>
@@ -4613,38 +4616,38 @@
         <v>4</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD49" s="4"/>
       <c r="AG49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI49" s="3">
         <v>4</v>
@@ -4672,45 +4675,45 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="3">
         <v>2</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="R50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W50" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="X50" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD50" s="4"/>
       <c r="AG50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH50" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI50" s="3">
         <v>3</v>
@@ -4737,39 +4740,39 @@
         <v>40</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="I51" s="4"/>
       <c r="N51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="W51" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="X51" s="4"/>
       <c r="AC51" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD51" s="6">
         <v>0.04</v>
       </c>
       <c r="AG51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI51" s="3">
         <v>2</v>
@@ -4793,26 +4796,26 @@
         <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="N52" s="4"/>
       <c r="R52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
@@ -4820,7 +4823,7 @@
         <v>50</v>
       </c>
       <c r="AK52" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4834,34 +4837,34 @@
         <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R53" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="W53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ53" s="3">
         <v>51</v>
@@ -4878,31 +4881,31 @@
         <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="R54" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="X54" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="AJ54" s="3">
         <v>52</v>
@@ -4919,31 +4922,31 @@
         <v>39</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="R55" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X55" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ55" s="3">
         <v>54</v>
@@ -4960,22 +4963,22 @@
         <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="R56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ56" s="3">
         <v>313</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF3014-9E23-4102-9329-2485476777FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA25A10-CFFD-4E74-AEE5-5DDAD558A172}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AL$56</definedName>
+    <definedName name="_" localSheetId="0">'Traditional Trade'!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Traditional Trade'!$A$1:$AN$56</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">'Traditional Trade'!$A$1:$AN$56</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="262">
   <si>
     <t>Sorting</t>
   </si>
@@ -838,6 +838,24 @@
   <si>
     <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
   </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
 </sst>
 </file>
 
@@ -846,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -862,8 +880,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +909,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -885,11 +924,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,6 +965,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,59 +1355,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK56"/>
+  <dimension ref="A1:AMM56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="3"/>
-    <col min="2" max="2" width="13.33203125" style="3"/>
-    <col min="3" max="3" width="25.88671875" style="3"/>
-    <col min="4" max="4" width="12.77734375" style="3"/>
-    <col min="5" max="5" width="18.44140625" style="3"/>
+    <col min="1" max="1" width="11.85546875" style="3"/>
+    <col min="2" max="2" width="13.28515625" style="3"/>
+    <col min="3" max="3" width="25.85546875" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3"/>
+    <col min="5" max="5" width="18.42578125" style="3"/>
     <col min="6" max="6" width="55" style="3"/>
-    <col min="7" max="7" width="77.44140625" style="3"/>
-    <col min="8" max="8" width="50.44140625" style="3"/>
-    <col min="9" max="9" width="18.5546875" style="3"/>
-    <col min="10" max="10" width="10" style="3"/>
-    <col min="11" max="11" width="15.33203125" style="3"/>
-    <col min="12" max="12" width="15.44140625" style="3"/>
-    <col min="13" max="13" width="32.21875" style="3"/>
-    <col min="14" max="14" width="34" style="3"/>
-    <col min="15" max="15" width="22.44140625" style="3"/>
-    <col min="16" max="16" width="10.88671875" style="3"/>
-    <col min="17" max="17" width="21.44140625" style="3"/>
-    <col min="18" max="18" width="15.88671875" style="3"/>
-    <col min="19" max="19" width="8" style="3"/>
-    <col min="20" max="20" width="16.6640625" style="3"/>
-    <col min="21" max="21" width="20.77734375" style="3"/>
-    <col min="22" max="22" width="26.109375" style="3"/>
-    <col min="23" max="23" width="25.88671875" style="3"/>
-    <col min="24" max="24" width="57.44140625" style="3"/>
-    <col min="25" max="25" width="28.77734375" style="3"/>
-    <col min="26" max="26" width="29.88671875" style="3"/>
-    <col min="27" max="27" width="30.77734375" style="3"/>
-    <col min="28" max="28" width="18.33203125" style="3"/>
-    <col min="29" max="29" width="18.77734375" style="3"/>
-    <col min="30" max="30" width="15.44140625" style="6"/>
-    <col min="31" max="31" width="14.6640625" style="3"/>
-    <col min="32" max="32" width="14.88671875" style="3"/>
-    <col min="33" max="33" width="26.21875" style="3"/>
-    <col min="34" max="34" width="99.109375" style="3"/>
-    <col min="35" max="35" width="8.6640625" style="3"/>
-    <col min="36" max="36" width="10" style="3"/>
-    <col min="37" max="37" width="12.44140625" style="3"/>
-    <col min="38" max="38" width="10.33203125" style="3"/>
-    <col min="39" max="1025" width="10.5546875" style="3"/>
-    <col min="1026" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="77.42578125" style="3"/>
+    <col min="8" max="8" width="50.42578125" style="3"/>
+    <col min="9" max="9" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="3"/>
+    <col min="12" max="12" width="10" style="3"/>
+    <col min="13" max="13" width="15.28515625" style="3"/>
+    <col min="14" max="14" width="15.42578125" style="3"/>
+    <col min="15" max="15" width="32.28515625" style="3"/>
+    <col min="16" max="16" width="34" style="3"/>
+    <col min="17" max="17" width="22.42578125" style="3"/>
+    <col min="18" max="18" width="10.85546875" style="3"/>
+    <col min="19" max="19" width="21.42578125" style="3"/>
+    <col min="20" max="20" width="15.85546875" style="3"/>
+    <col min="21" max="21" width="8" style="3"/>
+    <col min="22" max="22" width="16.7109375" style="3"/>
+    <col min="23" max="23" width="20.7109375" style="3"/>
+    <col min="24" max="24" width="26.140625" style="3"/>
+    <col min="25" max="25" width="25.85546875" style="3"/>
+    <col min="26" max="26" width="57.42578125" style="3"/>
+    <col min="27" max="27" width="28.7109375" style="3"/>
+    <col min="28" max="28" width="29.85546875" style="3"/>
+    <col min="29" max="29" width="30.7109375" style="3"/>
+    <col min="30" max="30" width="18.28515625" style="3"/>
+    <col min="31" max="31" width="18.7109375" style="3"/>
+    <col min="32" max="32" width="15.42578125" style="6"/>
+    <col min="33" max="33" width="14.7109375" style="3"/>
+    <col min="34" max="34" width="14.85546875" style="3"/>
+    <col min="35" max="35" width="26.28515625" style="3"/>
+    <col min="36" max="36" width="99.140625" style="3"/>
+    <col min="37" max="37" width="8.7109375" style="3"/>
+    <col min="38" max="38" width="10" style="3"/>
+    <col min="39" max="39" width="12.42578125" style="3"/>
+    <col min="40" max="40" width="10.28515625" style="3"/>
+    <col min="41" max="1027" width="10.5703125" style="3"/>
+    <col min="1028" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,98 +1434,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1486,36 +1554,36 @@
       <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="3">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="3">
         <v>1</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AL2" s="3">
         <v>300</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1540,40 +1608,46 @@
       <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="3" t="s">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="3">
+      <c r="AF3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="3">
         <v>2</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AL3" s="3">
         <v>1</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AM3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AN3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1598,54 +1672,54 @@
       <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3">
+      <c r="K4" s="4"/>
+      <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="4"/>
+      <c r="S4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AF4" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="3">
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="3">
         <v>3</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AL4" s="3">
         <v>2</v>
       </c>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="3">
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1670,54 +1744,54 @@
       <c r="H5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3">
+      <c r="K5" s="4"/>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AF5" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="3">
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="3">
         <v>3</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AL5" s="3">
         <v>3</v>
       </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="3">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1742,54 +1816,54 @@
       <c r="H6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3">
+      <c r="K6" s="4"/>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="3" t="s">
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AF6" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="3">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="3">
         <v>3</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AL6" s="3">
         <v>4</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="3">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1814,54 +1888,54 @@
       <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AF7" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="3">
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="3">
         <v>3</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AL7" s="3">
         <v>7</v>
       </c>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="3">
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1886,54 +1960,54 @@
       <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3">
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AF8" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="3">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="3">
         <v>3</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AL8" s="3">
         <v>8</v>
       </c>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="3">
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1958,54 +2032,54 @@
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="3" t="s">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AF9" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="3">
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="3">
         <v>3</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AL9" s="3">
         <v>9</v>
       </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="3">
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2030,54 +2104,54 @@
       <c r="H10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
+      <c r="K10" s="4"/>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5449000064110</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="4"/>
+      <c r="S10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="3" t="s">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AF10" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="3">
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="3">
         <v>3</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AL10" s="3">
         <v>10</v>
       </c>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="3">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2102,54 +2176,54 @@
       <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3">
+      <c r="K11" s="4"/>
+      <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AF11" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="3">
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="3">
         <v>3</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AL11" s="3">
         <v>12</v>
       </c>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="3">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2174,54 +2248,54 @@
       <c r="H12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3">
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="3" t="s">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="3" t="s">
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AF12" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="3">
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="3">
         <v>3</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AL12" s="3">
         <v>11</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="3">
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2246,54 +2320,54 @@
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3">
+      <c r="K13" s="4"/>
+      <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P13" s="3">
         <v>42099697</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="4"/>
+      <c r="S13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="3" t="s">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AF13" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="3">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="3">
         <v>3</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AL13" s="3">
         <v>603</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="3">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -2318,40 +2392,46 @@
       <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="3" t="s">
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="3">
+      <c r="AF14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="3">
         <v>2</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AL14" s="3">
         <v>15</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AM14" s="3">
         <v>16</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AN14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -2376,54 +2456,54 @@
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3">
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AF15" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="3">
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="3">
         <v>3</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AL15" s="3">
         <v>16</v>
       </c>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="3">
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>19</v>
       </c>
@@ -2448,40 +2528,46 @@
       <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="3" t="s">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="3">
+      <c r="AF16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="3">
         <v>2</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AL16" s="3">
         <v>17</v>
       </c>
-      <c r="AK16" s="5" t="s">
+      <c r="AM16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AN16" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -2506,54 +2592,54 @@
       <c r="H17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3">
+      <c r="K17" s="4"/>
+      <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="4"/>
+      <c r="S17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="3" t="s">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AF17" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="3">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="3">
         <v>3</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AL17" s="3">
         <v>18</v>
       </c>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="3">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>21</v>
       </c>
@@ -2578,54 +2664,54 @@
       <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3">
+      <c r="K18" s="4"/>
+      <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5060335632906</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="3" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="3" t="s">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AF18" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="3">
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3">
         <v>3</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AL18" s="3">
         <v>360</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="3">
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>23</v>
       </c>
@@ -2650,40 +2736,46 @@
       <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="3" t="s">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="3">
+      <c r="AF19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3">
         <v>2</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AL19" s="3">
         <v>20</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AN19" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>24</v>
       </c>
@@ -2708,54 +2800,54 @@
       <c r="H20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="4"/>
+      <c r="S20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="3" t="s">
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AF20" s="6">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="3">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="3">
         <v>3</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AL20" s="3">
         <v>21</v>
       </c>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="3">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>25</v>
       </c>
@@ -2780,54 +2872,54 @@
       <c r="H21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3">
+      <c r="K21" s="4"/>
+      <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="3" t="s">
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AF21" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="3">
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="3">
         <v>3</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AL21" s="3">
         <v>22</v>
       </c>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="3">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>26</v>
       </c>
@@ -2852,40 +2944,46 @@
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="3" t="s">
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="3">
+      <c r="AF22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="3">
         <v>2</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AL22" s="3">
         <v>23</v>
       </c>
-      <c r="AK22" s="5" t="s">
+      <c r="AM22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AN22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>27</v>
       </c>
@@ -2910,54 +3008,54 @@
       <c r="H23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="4"/>
+      <c r="S23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="3" t="s">
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AF23" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="3">
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="3">
         <v>3</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AL23" s="3">
         <v>24</v>
       </c>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="3">
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -2982,54 +3080,54 @@
       <c r="H24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3">
+      <c r="K24" s="4"/>
+      <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="3" t="s">
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AF24" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="3">
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="3">
         <v>3</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AL24" s="3">
         <v>25</v>
       </c>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="3">
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>29</v>
       </c>
@@ -3054,54 +3152,54 @@
       <c r="H25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3">
+      <c r="K25" s="4"/>
+      <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="3" t="s">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="3" t="s">
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AF25" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="3">
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="3">
         <v>3</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AL25" s="3">
         <v>26</v>
       </c>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="3">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -3126,54 +3224,54 @@
       <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3">
+      <c r="K26" s="4"/>
+      <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="3" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="3" t="s">
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AF26" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="3">
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="3">
         <v>3</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AL26" s="3">
         <v>27</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="3">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>31</v>
       </c>
@@ -3198,54 +3296,54 @@
       <c r="H27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="4"/>
+      <c r="S27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="3" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="3" t="s">
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AF27" s="6">
         <v>1.788E-2</v>
       </c>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="3">
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="3">
         <v>3</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AL27" s="3">
         <v>28</v>
       </c>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="3">
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>32</v>
       </c>
@@ -3270,54 +3368,54 @@
       <c r="H28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="4"/>
+      <c r="S28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="3" t="s">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AF28" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="3">
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="3">
         <v>3</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AL28" s="3">
         <v>31</v>
       </c>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="3">
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -3342,54 +3440,54 @@
       <c r="H29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="4"/>
+      <c r="S29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AF29" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="3">
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="3">
         <v>3</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AL29" s="3">
         <v>30</v>
       </c>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="3">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>35</v>
       </c>
@@ -3412,35 +3510,35 @@
       <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
       <c r="AD30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="3">
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="3">
         <v>1</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AL30" s="3">
         <v>301</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AM30" s="3">
         <v>303</v>
       </c>
-      <c r="AL30" s="4"/>
-    </row>
-    <row r="31" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN30" s="4"/>
+    </row>
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>36</v>
       </c>
@@ -3463,37 +3561,37 @@
       <c r="H31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
       <c r="AD31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="3">
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="3">
         <v>1</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AL31" s="3">
         <v>303</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AM31" s="3">
         <v>32</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AN31" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>37</v>
       </c>
@@ -3518,47 +3616,47 @@
       <c r="H32" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="3">
         <v>2</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="4"/>
+      <c r="S32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="W32" s="3" t="s">
+      <c r="T32" s="4"/>
+      <c r="Y32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="3" t="s">
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AF32" s="6">
         <v>0.15</v>
       </c>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="3">
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="3">
         <v>2</v>
       </c>
-      <c r="AJ32" s="3">
+      <c r="AL32" s="3">
         <v>32</v>
       </c>
-      <c r="AK32" s="5" t="s">
+      <c r="AM32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AN32" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>38</v>
       </c>
@@ -3583,49 +3681,49 @@
       <c r="H33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="3">
         <v>12</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="4"/>
+      <c r="S33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="3" t="s">
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="3">
+      <c r="AF33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="3">
         <v>3</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AL33" s="3">
         <v>33</v>
       </c>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="3">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>39</v>
       </c>
@@ -3650,45 +3748,45 @@
       <c r="H34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R34" s="4"/>
-      <c r="W34" s="3" t="s">
+      <c r="T34" s="4"/>
+      <c r="Y34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="3" t="s">
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="3">
+      <c r="AF34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="3">
         <v>3</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AL34" s="3">
         <v>34</v>
       </c>
-      <c r="AK34" s="5" t="s">
+      <c r="AM34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AN34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>40</v>
       </c>
@@ -3713,49 +3811,49 @@
       <c r="H35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4607042434877</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="3" t="s">
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="3" t="s">
+      <c r="AF35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AK35" s="3">
         <v>4</v>
       </c>
-      <c r="AJ35" s="3">
+      <c r="AL35" s="3">
         <v>57</v>
       </c>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="3">
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41</v>
       </c>
@@ -3780,49 +3878,49 @@
       <c r="H36" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="3">
+      <c r="P36" s="3">
         <v>4607042434891</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="3" t="s">
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="3" t="s">
+      <c r="AF36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AK36" s="3">
         <v>4</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AL36" s="3">
         <v>35</v>
       </c>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="3">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42</v>
       </c>
@@ -3845,35 +3943,35 @@
       <c r="H37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
       <c r="AD37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="3">
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="3">
         <v>1</v>
       </c>
-      <c r="AJ37" s="3">
+      <c r="AL37" s="3">
         <v>310</v>
       </c>
-      <c r="AK37" s="5" t="s">
+      <c r="AM37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AL37" s="4"/>
-    </row>
-    <row r="38" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN37" s="4"/>
+    </row>
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43</v>
       </c>
@@ -3896,37 +3994,37 @@
       <c r="H38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="3">
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="3">
         <v>1</v>
       </c>
-      <c r="AJ38" s="3">
+      <c r="AL38" s="3">
         <v>311</v>
       </c>
-      <c r="AK38" s="3">
+      <c r="AM38" s="3">
         <v>36</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AN38" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44</v>
       </c>
@@ -3951,45 +4049,45 @@
       <c r="H39" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="4"/>
+      <c r="S39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="T39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="3" t="s">
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD39" s="6">
+      <c r="AF39" s="6">
         <v>0.24</v>
       </c>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="3" t="s">
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AK39" s="3">
         <v>2</v>
       </c>
-      <c r="AJ39" s="3">
+      <c r="AL39" s="3">
         <v>36</v>
       </c>
-      <c r="AK39" s="5" t="s">
+      <c r="AM39" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AL39" s="3">
+      <c r="AN39" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45</v>
       </c>
@@ -4014,52 +4112,52 @@
       <c r="H40" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3">
+      <c r="K40" s="4"/>
+      <c r="L40" s="3">
         <v>0.5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M40" s="3">
         <v>30</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="4"/>
+      <c r="O40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="3" t="s">
+      <c r="Z40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="4"/>
-      <c r="AG40" s="3" t="s">
+      <c r="AF40" s="4"/>
+      <c r="AI40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AH40" s="3" t="s">
+      <c r="AJ40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AK40" s="3">
         <v>3</v>
       </c>
-      <c r="AJ40" s="3">
+      <c r="AL40" s="3">
         <v>37</v>
       </c>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="3">
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -4084,47 +4182,47 @@
       <c r="H41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="3">
+      <c r="K41" s="4"/>
+      <c r="L41" s="3">
         <v>0.01</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="3" t="s">
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="3">
+      <c r="AF41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="3">
         <v>3</v>
       </c>
-      <c r="AJ41" s="3">
-        <v>39</v>
-      </c>
-      <c r="AK41" s="4"/>
       <c r="AL41" s="3">
+        <v>39</v>
+      </c>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>48</v>
       </c>
@@ -4147,37 +4245,37 @@
       <c r="H42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
       <c r="AD42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="3">
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="3">
         <v>1</v>
       </c>
-      <c r="AJ42" s="3">
+      <c r="AL42" s="3">
         <v>312</v>
       </c>
-      <c r="AK42" s="5" t="s">
+      <c r="AM42" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AN42" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>49</v>
       </c>
@@ -4202,53 +4300,53 @@
       <c r="H43" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Z43" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Y43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="3" t="s">
+      <c r="AA43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AF43" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG43" s="3" t="s">
+      <c r="AI43" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH43" s="3" t="s">
+      <c r="AJ43" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AK43" s="3">
         <v>2</v>
       </c>
-      <c r="AJ43" s="3">
-        <v>40</v>
-      </c>
-      <c r="AK43" s="4"/>
       <c r="AL43" s="3">
+        <v>40</v>
+      </c>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>50</v>
       </c>
@@ -4273,54 +4371,54 @@
       <c r="H44" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>15</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="3" t="s">
+      <c r="Z44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AF44" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG44" s="3" t="s">
+      <c r="AI44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH44" s="3" t="s">
+      <c r="AJ44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AK44" s="3">
         <v>2</v>
       </c>
-      <c r="AJ44" s="3">
+      <c r="AL44" s="3">
         <v>41</v>
       </c>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="3">
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>51</v>
       </c>
@@ -4345,46 +4443,46 @@
       <c r="H45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="4"/>
+      <c r="S45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R45" s="4"/>
-      <c r="W45" s="3" t="s">
+      <c r="T45" s="4"/>
+      <c r="Y45" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="3" t="s">
+      <c r="Z45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AF45" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG45" s="3" t="s">
+      <c r="AI45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH45" s="3" t="s">
+      <c r="AJ45" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AK45" s="3">
         <v>2</v>
       </c>
-      <c r="AJ45" s="3">
+      <c r="AL45" s="3">
         <v>42</v>
       </c>
-      <c r="AK45" s="5" t="s">
+      <c r="AM45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL45" s="3">
+      <c r="AN45" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>52</v>
       </c>
@@ -4407,54 +4505,54 @@
       <c r="H46" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="3">
+      <c r="K46" s="4"/>
+      <c r="L46" s="3">
         <v>0.4</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="O46" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="3" t="s">
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="4"/>
-      <c r="AG46" s="3" t="s">
+      <c r="AF46" s="4"/>
+      <c r="AI46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH46" s="3" t="s">
+      <c r="AJ46" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AK46" s="3">
         <v>3</v>
       </c>
-      <c r="AJ46" s="3">
+      <c r="AL46" s="3">
         <v>43</v>
       </c>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="3">
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>53</v>
       </c>
@@ -4477,46 +4575,46 @@
       <c r="H47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="3">
+      <c r="K47" s="4"/>
+      <c r="L47" s="3">
         <v>2</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="4"/>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="4"/>
+      <c r="S47" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="W47" s="3" t="s">
+      <c r="T47" s="4"/>
+      <c r="Y47" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="3" t="s">
+      <c r="Z47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD47" s="4"/>
-      <c r="AG47" s="3" t="s">
+      <c r="AF47" s="4"/>
+      <c r="AI47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH47" s="3" t="s">
+      <c r="AJ47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AK47" s="3">
         <v>3</v>
       </c>
-      <c r="AJ47" s="3">
+      <c r="AL47" s="3">
         <v>45</v>
       </c>
-      <c r="AK47" s="5" t="s">
+      <c r="AM47" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AL47" s="3">
+      <c r="AN47" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>54</v>
       </c>
@@ -4539,56 +4637,56 @@
       <c r="H48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="3">
+      <c r="K48" s="4"/>
+      <c r="L48" s="3">
         <v>4</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X48" s="5" t="s">
+      <c r="Z48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AD48" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AE48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD48" s="4"/>
-      <c r="AG48" s="3" t="s">
+      <c r="AF48" s="4"/>
+      <c r="AI48" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH48" s="3" t="s">
+      <c r="AJ48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AK48" s="3">
         <v>4</v>
       </c>
-      <c r="AJ48" s="3">
+      <c r="AL48" s="3">
         <v>46</v>
       </c>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="3">
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>55</v>
       </c>
@@ -4611,56 +4709,56 @@
       <c r="H49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="3">
+      <c r="K49" s="4"/>
+      <c r="L49" s="3">
         <v>4</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="Z49" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AD49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AE49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="4"/>
-      <c r="AG49" s="3" t="s">
+      <c r="AF49" s="4"/>
+      <c r="AI49" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH49" s="3" t="s">
+      <c r="AJ49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AK49" s="3">
         <v>4</v>
       </c>
-      <c r="AJ49" s="3">
+      <c r="AL49" s="3">
         <v>47</v>
       </c>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="3">
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>56</v>
       </c>
@@ -4683,50 +4781,50 @@
       <c r="H50" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="3">
+      <c r="K50" s="4"/>
+      <c r="L50" s="3">
         <v>2</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="O50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="Y50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X50" s="5" t="s">
+      <c r="Z50" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AC50" s="3" t="s">
+      <c r="AE50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="4"/>
-      <c r="AG50" s="3" t="s">
+      <c r="AF50" s="4"/>
+      <c r="AI50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH50" s="3" t="s">
+      <c r="AJ50" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AK50" s="3">
         <v>3</v>
       </c>
-      <c r="AJ50" s="3">
+      <c r="AL50" s="3">
         <v>48</v>
       </c>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="3">
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>57</v>
       </c>
@@ -4751,41 +4849,41 @@
       <c r="H51" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="N51" s="3" t="s">
+      <c r="K51" s="4"/>
+      <c r="P51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="W51" s="3" t="s">
+      <c r="Y51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X51" s="4"/>
-      <c r="AC51" s="3" t="s">
+      <c r="Z51" s="4"/>
+      <c r="AE51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AF51" s="6">
         <v>0.04</v>
       </c>
-      <c r="AG51" s="3" t="s">
+      <c r="AI51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AH51" s="3" t="s">
+      <c r="AJ51" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AK51" s="3">
         <v>2</v>
       </c>
-      <c r="AJ51" s="3">
+      <c r="AL51" s="3">
         <v>49</v>
       </c>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="3">
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>58</v>
       </c>
@@ -4810,23 +4908,23 @@
       <c r="H52" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="R52" s="3" t="s">
+      <c r="P52" s="4"/>
+      <c r="T52" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="AJ52" s="3">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AL52" s="3">
         <v>50</v>
       </c>
-      <c r="AK52" s="5" t="s">
+      <c r="AM52" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>59</v>
       </c>
@@ -4851,26 +4949,26 @@
       <c r="H53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W53" s="3" t="s">
+      <c r="Y53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="X53" s="5" t="s">
+      <c r="Z53" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AJ53" s="3">
+      <c r="AL53" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>60</v>
       </c>
@@ -4895,23 +4993,23 @@
       <c r="H54" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="R54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X54" s="5" t="s">
+      <c r="Z54" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AJ54" s="3">
+      <c r="AL54" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>61</v>
       </c>
@@ -4936,23 +5034,23 @@
       <c r="H55" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X55" s="5" t="s">
+      <c r="Z55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AJ55" s="3">
+      <c r="AL55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>62</v>
       </c>
@@ -4974,18 +5072,18 @@
       <c r="H56" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AJ56" s="3">
+      <c r="AL56" s="3">
         <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - FT NS - CAP.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA25A10-CFFD-4E74-AEE5-5DDAD558A172}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6BB1C-0935-428B-92BB-B88B93CFC194}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="501" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" r:id="rId1"/>
@@ -794,9 +794,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Freezer BIG SSD, SSD Cooler-Side Rack Big, SSD Cooler-Side Rack Small, SSD Mini pallet, SSD Neck-hanging Rack, Freezer Small SSD, Other SSD Display BIG, Other SSD Display Small, Juice Cooler-Side Rack, Juice Freezer, Juice Mini Pallet, Other Juice Display BIG, Pulpy Cooler-Side Rack, Pulpy Other, Other Juice Display Small, Bonaqua Display, Fuzetea Display, Energy Display, Promo SSD, Promo Juice, Promo Water, Promo Energy, Promo Fuzetea</t>
-  </si>
-  <si>
     <t>Scene Sub Type 1</t>
   </si>
   <si>
@@ -818,27 +815,9 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>SSD 1 door, SSD 1.5 door, Mixed 1 door, Mixed  1.5 door, SS_SSD 1 door, SS_SSD 1.5 door, SS_Mixed 1 door, SS_Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t>SSD 1 door, NCB 1 door, Mixed 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, SSDFL 1 door, SSDFL 1.5 door</t>
-  </si>
-  <si>
-    <t>SSD 1 door, NCB 1 door, Mixed 1 door, FC 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, FC door 1.5 door</t>
-  </si>
-  <si>
-    <t>SSD 1 door, NCB 1 door, Mixed 1 door, SSD 1.5 door, NSB  1.5 door, Mixed  1.5 door, SSDFL 1 door, SSDFL 1.5 door, SS_SSD 1 door, SS_NCB 1 door, SS_Mixed 1 door, SS_SSD 1.5 door, SS_NSB  1.5 door, SS_Mixed  1.5 door, SS_SSDFL 1 door, SS_SSDFL 1.5 door</t>
-  </si>
-  <si>
     <t>number of atomic KPI Passed on the same scene</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Traditional Trade</t>
-  </si>
-  <si>
     <t>Category KPI Type</t>
   </si>
   <si>
@@ -855,6 +834,27 @@
   </si>
   <si>
     <t>ice tea</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Traditional Trade</t>
+  </si>
+  <si>
+    <t>SSD 1 door; SSD 1.5 door; Mixed 1 door; Mixed  1.5 door; SS_SSD 1 door; SS_SSD 1.5 door; SS_Mixed 1 door; SS_Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t>SSD 1 door; NCB 1 door; Mixed 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; SSDFL 1 door; SSDFL 1.5 door; SS_SSD 1 door; SS_NCB 1 door; SS_Mixed 1 door; SS_SSD 1.5 door; SS_NSB  1.5 door; SS_Mixed  1.5 door; SS_SSDFL 1 door; SS_SSDFL 1.5 door</t>
+  </si>
+  <si>
+    <t>SSD 1 door; NCB 1 door; Mixed 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; SSDFL 1 door; SSDFL 1.5 door</t>
+  </si>
+  <si>
+    <t>SSD 1 door; NCB 1 door; Mixed 1 door; FC 1 door; SSD 1.5 door; NSB  1.5 door; Mixed  1.5 door; FC door 1.5 door</t>
+  </si>
+  <si>
+    <t>Freezer BIG SSD; SSD Cooler-Side Rack Big; SSD Cooler-Side Rack Small; SSD Mini pallet; SSD Neck-hanging Rack; Freezer Small SSD; Other SSD Display BIG; Other SSD Display Small; Juice Cooler-Side Rack; Juice Freezer; Juice Mini Pallet; Other Juice Display BIG; Pulpy Cooler-Side Rack; Pulpy Other; Other Juice Display Small; Bonaqua Display; Fuzetea Display; Energy Display; Promo SSD; Promo Juice; Promo Water; Promo Energy; Promo Fuzetea</t>
   </si>
 </sst>
 </file>
@@ -1357,59 +1357,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM56"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="3"/>
-    <col min="2" max="2" width="13.28515625" style="3"/>
-    <col min="3" max="3" width="25.85546875" style="3"/>
-    <col min="4" max="4" width="12.7109375" style="3"/>
-    <col min="5" max="5" width="18.42578125" style="3"/>
+    <col min="1" max="1" width="11.88671875" style="3"/>
+    <col min="2" max="2" width="13.33203125" style="3"/>
+    <col min="3" max="3" width="25.88671875" style="3"/>
+    <col min="4" max="4" width="12.6640625" style="3"/>
+    <col min="5" max="5" width="18.44140625" style="3"/>
     <col min="6" max="6" width="55" style="3"/>
-    <col min="7" max="7" width="77.42578125" style="3"/>
-    <col min="8" max="8" width="50.42578125" style="3"/>
-    <col min="9" max="9" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="3"/>
+    <col min="7" max="7" width="77.44140625" style="3"/>
+    <col min="8" max="8" width="50.44140625" style="3"/>
+    <col min="9" max="9" width="23.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="3"/>
     <col min="12" max="12" width="10" style="3"/>
-    <col min="13" max="13" width="15.28515625" style="3"/>
-    <col min="14" max="14" width="15.42578125" style="3"/>
-    <col min="15" max="15" width="32.28515625" style="3"/>
+    <col min="13" max="13" width="15.33203125" style="3"/>
+    <col min="14" max="14" width="15.44140625" style="3"/>
+    <col min="15" max="15" width="32.33203125" style="3"/>
     <col min="16" max="16" width="34" style="3"/>
-    <col min="17" max="17" width="22.42578125" style="3"/>
-    <col min="18" max="18" width="10.85546875" style="3"/>
-    <col min="19" max="19" width="21.42578125" style="3"/>
-    <col min="20" max="20" width="15.85546875" style="3"/>
+    <col min="17" max="17" width="22.44140625" style="3"/>
+    <col min="18" max="18" width="10.88671875" style="3"/>
+    <col min="19" max="19" width="21.44140625" style="3"/>
+    <col min="20" max="20" width="15.88671875" style="3"/>
     <col min="21" max="21" width="8" style="3"/>
-    <col min="22" max="22" width="16.7109375" style="3"/>
-    <col min="23" max="23" width="20.7109375" style="3"/>
-    <col min="24" max="24" width="26.140625" style="3"/>
-    <col min="25" max="25" width="25.85546875" style="3"/>
-    <col min="26" max="26" width="57.42578125" style="3"/>
-    <col min="27" max="27" width="28.7109375" style="3"/>
-    <col min="28" max="28" width="29.85546875" style="3"/>
-    <col min="29" max="29" width="30.7109375" style="3"/>
-    <col min="30" max="30" width="18.28515625" style="3"/>
-    <col min="31" max="31" width="18.7109375" style="3"/>
-    <col min="32" max="32" width="15.42578125" style="6"/>
-    <col min="33" max="33" width="14.7109375" style="3"/>
-    <col min="34" max="34" width="14.85546875" style="3"/>
-    <col min="35" max="35" width="26.28515625" style="3"/>
-    <col min="36" max="36" width="99.140625" style="3"/>
-    <col min="37" max="37" width="8.7109375" style="3"/>
+    <col min="22" max="22" width="16.6640625" style="3"/>
+    <col min="23" max="23" width="20.6640625" style="3"/>
+    <col min="24" max="24" width="26.109375" style="3"/>
+    <col min="25" max="25" width="25.88671875" style="3"/>
+    <col min="26" max="26" width="57.44140625" style="3"/>
+    <col min="27" max="27" width="28.6640625" style="3"/>
+    <col min="28" max="28" width="29.88671875" style="3"/>
+    <col min="29" max="29" width="30.6640625" style="3"/>
+    <col min="30" max="30" width="18.33203125" style="3"/>
+    <col min="31" max="31" width="18.6640625" style="3"/>
+    <col min="32" max="32" width="15.44140625" style="6"/>
+    <col min="33" max="33" width="14.6640625" style="3"/>
+    <col min="34" max="34" width="14.88671875" style="3"/>
+    <col min="35" max="35" width="26.33203125" style="3"/>
+    <col min="36" max="36" width="99.109375" style="3"/>
+    <col min="37" max="37" width="8.6640625" style="3"/>
     <col min="38" max="38" width="10" style="3"/>
-    <col min="39" max="39" width="12.42578125" style="3"/>
-    <col min="40" max="40" width="10.28515625" style="3"/>
-    <col min="41" max="1027" width="10.5703125" style="3"/>
-    <col min="1028" max="16384" width="8.85546875" style="4"/>
+    <col min="39" max="39" width="12.44140625" style="3"/>
+    <col min="40" max="40" width="10.33203125" style="3"/>
+    <col min="41" max="1027" width="10.5546875" style="3"/>
+    <col min="1028" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1531,7 +1531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1647,7 +1647,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3" t="s">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3" t="s">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3" t="s">
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="3" t="s">
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="3" t="s">
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="3" t="s">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="3" t="s">
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="3" t="s">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="3" t="s">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="3" t="s">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2431,7 +2431,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>18</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="3" t="s">
@@ -2503,7 +2503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>19</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2567,7 +2567,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="3" t="s">
@@ -2639,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>21</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="3" t="s">
@@ -2711,7 +2711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>23</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>41</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2775,7 +2775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>24</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="3" t="s">
@@ -2847,7 +2847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>25</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="3" t="s">
@@ -2919,7 +2919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>26</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>27</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD23" s="4"/>
       <c r="AE23" s="3" t="s">
@@ -3055,7 +3055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD24" s="4"/>
       <c r="AE24" s="3" t="s">
@@ -3127,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>29</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD25" s="4"/>
       <c r="AE25" s="3" t="s">
@@ -3199,7 +3199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD26" s="4"/>
       <c r="AE26" s="3" t="s">
@@ -3271,7 +3271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>31</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD27" s="4"/>
       <c r="AE27" s="3" t="s">
@@ -3343,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>32</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD28" s="4"/>
       <c r="AE28" s="3" t="s">
@@ -3415,7 +3415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>33</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AD29" s="4"/>
       <c r="AE29" s="3" t="s">
@@ -3487,7 +3487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>35</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>36</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>37</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>136</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="3">
@@ -3656,7 +3656,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>38</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>39</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>40</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>41</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>42</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>43</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>48</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>49</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>189</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA43" s="4"/>
       <c r="AD43" s="4"/>
@@ -4346,7 +4346,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>50</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>51</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>52</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>173</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AD46" s="4"/>
       <c r="AE46" s="3" t="s">
@@ -4552,7 +4552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>53</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>54</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>173</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>211</v>
@@ -4686,7 +4686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>55</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>173</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>211</v>
@@ -4758,7 +4758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>56</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>173</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AE50" s="3" t="s">
         <v>57</v>
@@ -4824,7 +4824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>57</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>58</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>59</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>173</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AL53" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>60</v>
       </c>
@@ -5003,13 +5003,13 @@
         <v>234</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AL54" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>61</v>
       </c>
@@ -5023,13 +5023,13 @@
         <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>238</v>
@@ -5038,19 +5038,19 @@
         <v>239</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>234</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AL55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>62</v>
       </c>
@@ -5064,16 +5064,16 @@
         <v>221</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>227</v>
